--- a/images/noon/CardHolder/production/NIS.xlsx
+++ b/images/noon/CardHolder/production/NIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sage\PycharmProjects\noon-images\images\noon\CardHolder\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27EE037-7E8E-46E9-8CC6-24361328C657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C0EEF-E0AF-42FE-947C-38476D36D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="947">
   <si>
     <t>How do I fill in the template tab?</t>
   </si>
@@ -3759,12 +3759,165 @@
   <si>
     <t>Generic</t>
   </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Almond%20Blossoms%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Almond%20Blossoms%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Almond%20Blossoms%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Almond%20Blossoms%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20A%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20A%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20A%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20B%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20B%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20B%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20B%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20over%20the%20Rhone%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20over%20the%20Rhone%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Starry%20Night%20over%20the%20Rhone%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20A%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20A%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20A%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20B%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20B%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20B%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Van%20Gogh/Card%20Holder%20with%20Lanyard%20-%20Van%20Gogh%20-%20Sunflowers%20B%20-%204.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Rabbit%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Rabbit%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Rabbit%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Snorlax%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Snorlax%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20Snorlax%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20on%20Grassland%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20on%20Grassland%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Lanyard%20-%20Totoro%20on%20Grassland%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Rabbit%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Rabbit%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Rabbit%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Snorlax%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Snorlax%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20Snorlax%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20and%20the%20Mysterious%20Girl%20-%203.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20on%20Grassland%20-%201.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20on%20Grassland%20-%202.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20on%20Grassland%20-%203.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3831,6 +3984,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4075,7 +4236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
@@ -4084,8 +4245,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4148,18 +4310,61 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4171,54 +4376,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="GRAY_BACK_GROUND" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="GREEN_BACK_GROUND" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="LIGHT_GRAY_BACK_GROUND" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -4227,57 +4390,9 @@
     <cellStyle name="RED_BACK_GROUND" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="YELLOW_BACK_GROUND" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8"/>
   </cellStyles>
-  <dxfs count="306">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFDFDF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFF38D8D"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFF38D8D"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFF38D8D"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFF0000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDFFFDF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF006400"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF006400"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF006400"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF006400"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="303">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -9579,21 +9694,21 @@
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -9674,21 +9789,21 @@
       <c r="AC3" s="12"/>
     </row>
     <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -9707,21 +9822,21 @@
       <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="A5" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -9740,19 +9855,19 @@
       <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="28"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -9771,21 +9886,21 @@
       <c r="AC6" s="12"/>
     </row>
     <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -9807,20 +9922,20 @@
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="28"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -9842,20 +9957,20 @@
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -9877,20 +9992,20 @@
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -9909,19 +10024,19 @@
       <c r="AC10" s="17"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -9940,21 +10055,21 @@
       <c r="AC11" s="12"/>
     </row>
     <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="28"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -9973,21 +10088,21 @@
       <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="37"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="44"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -10006,19 +10121,19 @@
       <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="28"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -10037,21 +10152,21 @@
       <c r="AC14" s="12"/>
     </row>
     <row r="15" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -10070,21 +10185,21 @@
       <c r="AC15" s="12"/>
     </row>
     <row r="16" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -10144,20 +10259,20 @@
     </row>
     <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -10177,20 +10292,20 @@
     </row>
     <row r="20" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -10241,20 +10356,20 @@
     </row>
     <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
@@ -10274,20 +10389,20 @@
     </row>
     <row r="23" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -10338,20 +10453,20 @@
     </row>
     <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="28"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -10371,20 +10486,20 @@
     </row>
     <row r="26" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -10466,20 +10581,20 @@
     </row>
     <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="28"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -10499,20 +10614,20 @@
     </row>
     <row r="30" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -10532,18 +10647,18 @@
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="41"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="35"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -10563,20 +10678,20 @@
     </row>
     <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -10596,20 +10711,20 @@
     </row>
     <row r="33" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="28"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
@@ -10629,18 +10744,18 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -10659,21 +10774,21 @@
       <c r="AC34" s="12"/>
     </row>
     <row r="35" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="28"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -10692,21 +10807,21 @@
       <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -10756,21 +10871,21 @@
       <c r="AC37" s="12"/>
     </row>
     <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="28"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -10789,36 +10904,36 @@
       <c r="AC38" s="10"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="41"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="28"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -10837,36 +10952,36 @@
       <c r="AC40" s="23"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="41"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="28"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -10886,20 +11001,20 @@
     </row>
     <row r="43" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="28"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
@@ -10919,20 +11034,20 @@
     </row>
     <row r="44" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
-      <c r="B44" s="52" t="s">
+      <c r="B44" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="28"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
@@ -10951,36 +11066,36 @@
       <c r="AC44" s="24"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="41"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="28"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -11000,20 +11115,20 @@
     </row>
     <row r="47" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="50"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
@@ -11034,6 +11149,36 @@
     <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B46:M46"/>
     <mergeCell ref="B47:M47"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A39:M39"/>
@@ -11042,36 +11187,6 @@
     <mergeCell ref="B42:M42"/>
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11150,7 +11265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -11632,7 +11747,7 @@
   <dimension ref="A1:CW25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11721,20 +11836,20 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -11746,39 +11861,39 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -11790,20 +11905,20 @@
       <c r="D5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -12891,7 +13006,7 @@
       <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="26" t="s">
         <v>879</v>
       </c>
       <c r="G10" t="s">
@@ -12920,6 +13035,18 @@
       </c>
       <c r="X10" t="s">
         <v>507</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>896</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>897</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>898</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>899</v>
       </c>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.3">
@@ -12932,7 +13059,7 @@
       <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="26" t="s">
         <v>880</v>
       </c>
       <c r="G11" t="s">
@@ -12961,6 +13088,15 @@
       </c>
       <c r="X11" t="s">
         <v>507</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>900</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>901</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.3">
@@ -12973,7 +13109,7 @@
       <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="26" t="s">
         <v>881</v>
       </c>
       <c r="G12" t="s">
@@ -13002,6 +13138,18 @@
       </c>
       <c r="X12" t="s">
         <v>507</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>903</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>904</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>905</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.3">
@@ -13014,7 +13162,7 @@
       <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="26" t="s">
         <v>882</v>
       </c>
       <c r="G13" t="s">
@@ -13043,6 +13191,15 @@
       </c>
       <c r="X13" t="s">
         <v>507</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>907</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>908</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.3">
@@ -13055,7 +13212,7 @@
       <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="26" t="s">
         <v>883</v>
       </c>
       <c r="G14" t="s">
@@ -13084,6 +13241,15 @@
       </c>
       <c r="X14" t="s">
         <v>507</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>910</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>911</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.3">
@@ -13096,7 +13262,7 @@
       <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="26" t="s">
         <v>884</v>
       </c>
       <c r="G15" t="s">
@@ -13125,6 +13291,18 @@
       </c>
       <c r="X15" t="s">
         <v>507</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>913</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>914</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>915</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.3">
@@ -13137,7 +13315,7 @@
       <c r="C16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="26" t="s">
         <v>885</v>
       </c>
       <c r="G16" t="s">
@@ -13167,8 +13345,17 @@
       <c r="X16" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF16" t="s">
+        <v>917</v>
+      </c>
+      <c r="AG16" s="57" t="s">
+        <v>918</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -13178,7 +13365,7 @@
       <c r="C17" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="26" t="s">
         <v>886</v>
       </c>
       <c r="G17" t="s">
@@ -13208,8 +13395,17 @@
       <c r="X17" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF17" t="s">
+        <v>920</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>921</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13219,7 +13415,7 @@
       <c r="C18" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="26" t="s">
         <v>887</v>
       </c>
       <c r="G18" t="s">
@@ -13249,8 +13445,17 @@
       <c r="X18" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF18" t="s">
+        <v>923</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>924</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -13260,7 +13465,7 @@
       <c r="C19" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E19" s="26" t="s">
         <v>888</v>
       </c>
       <c r="G19" t="s">
@@ -13290,8 +13495,17 @@
       <c r="X19" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF19" t="s">
+        <v>926</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>927</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -13301,7 +13515,7 @@
       <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="56" t="s">
+      <c r="E20" s="26" t="s">
         <v>889</v>
       </c>
       <c r="G20" t="s">
@@ -13331,8 +13545,17 @@
       <c r="X20" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF20" t="s">
+        <v>929</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>930</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -13342,7 +13565,7 @@
       <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="26" t="s">
         <v>890</v>
       </c>
       <c r="G21" t="s">
@@ -13372,8 +13595,17 @@
       <c r="X21" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF21" t="s">
+        <v>932</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>933</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -13383,7 +13615,7 @@
       <c r="C22" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="26" t="s">
         <v>891</v>
       </c>
       <c r="G22" t="s">
@@ -13413,8 +13645,17 @@
       <c r="X22" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF22" t="s">
+        <v>935</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>936</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13424,7 +13665,7 @@
       <c r="C23" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="56" t="s">
+      <c r="E23" s="26" t="s">
         <v>892</v>
       </c>
       <c r="G23" t="s">
@@ -13454,8 +13695,17 @@
       <c r="X23" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF23" t="s">
+        <v>938</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>939</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -13465,7 +13715,7 @@
       <c r="C24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="26" t="s">
         <v>893</v>
       </c>
       <c r="G24" t="s">
@@ -13495,8 +13745,17 @@
       <c r="X24" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AF24" t="s">
+        <v>941</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>942</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -13506,7 +13765,7 @@
       <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="26" t="s">
         <v>894</v>
       </c>
       <c r="G25" t="s">
@@ -13535,6 +13794,15 @@
       </c>
       <c r="X25" t="s">
         <v>507</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>944</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>945</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -13545,1113 +13813,1113 @@
     <mergeCell ref="E5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:A9999">
-    <cfRule type="expression" dxfId="305" priority="1">
+    <cfRule type="expression" dxfId="302" priority="1">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="2">
+    <cfRule type="expression" dxfId="301" priority="2">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="303" priority="3">
+    <cfRule type="expression" dxfId="300" priority="3">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B9999">
-    <cfRule type="expression" dxfId="302" priority="4">
+    <cfRule type="expression" dxfId="299" priority="4">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="5">
+    <cfRule type="expression" dxfId="298" priority="5">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="6">
+    <cfRule type="expression" dxfId="297" priority="6">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C9999">
-    <cfRule type="expression" dxfId="299" priority="7">
+    <cfRule type="expression" dxfId="296" priority="7">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="8">
+    <cfRule type="expression" dxfId="295" priority="8">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="9">
+    <cfRule type="expression" dxfId="294" priority="9">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D9999">
-    <cfRule type="expression" dxfId="296" priority="10">
+    <cfRule type="expression" dxfId="293" priority="10">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="11">
+    <cfRule type="expression" dxfId="292" priority="11">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="12">
+    <cfRule type="expression" dxfId="291" priority="12">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E9999">
-    <cfRule type="expression" dxfId="293" priority="13">
+    <cfRule type="expression" dxfId="290" priority="13">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="14">
+    <cfRule type="expression" dxfId="289" priority="14">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="15">
+    <cfRule type="expression" dxfId="288" priority="15">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F9999">
-    <cfRule type="expression" dxfId="290" priority="16">
+    <cfRule type="expression" dxfId="287" priority="16">
       <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="17">
+    <cfRule type="expression" dxfId="286" priority="17">
       <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="18">
+    <cfRule type="expression" dxfId="285" priority="18">
       <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G9999">
-    <cfRule type="expression" dxfId="287" priority="19">
+    <cfRule type="expression" dxfId="284" priority="19">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="20">
+    <cfRule type="expression" dxfId="283" priority="20">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="21">
+    <cfRule type="expression" dxfId="282" priority="21">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H9999">
-    <cfRule type="expression" dxfId="284" priority="22">
+    <cfRule type="expression" dxfId="281" priority="22">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="23">
+    <cfRule type="expression" dxfId="280" priority="23">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="24">
+    <cfRule type="expression" dxfId="279" priority="24">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I9999">
-    <cfRule type="expression" dxfId="281" priority="25">
+    <cfRule type="expression" dxfId="278" priority="25">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="26">
+    <cfRule type="expression" dxfId="277" priority="26">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="27">
+    <cfRule type="expression" dxfId="276" priority="27">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J9999">
-    <cfRule type="expression" dxfId="278" priority="28">
+    <cfRule type="expression" dxfId="275" priority="28">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="29">
+    <cfRule type="expression" dxfId="274" priority="29">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="30">
+    <cfRule type="expression" dxfId="273" priority="30">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K9999">
-    <cfRule type="expression" dxfId="275" priority="31">
+    <cfRule type="expression" dxfId="272" priority="31">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="32">
+    <cfRule type="expression" dxfId="271" priority="32">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="33">
+    <cfRule type="expression" dxfId="270" priority="33">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L9999">
-    <cfRule type="expression" dxfId="272" priority="34">
+    <cfRule type="expression" dxfId="269" priority="34">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="35">
+    <cfRule type="expression" dxfId="268" priority="35">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="36">
+    <cfRule type="expression" dxfId="267" priority="36">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M9999">
-    <cfRule type="expression" dxfId="269" priority="37">
+    <cfRule type="expression" dxfId="266" priority="37">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="38">
+    <cfRule type="expression" dxfId="265" priority="38">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="39">
+    <cfRule type="expression" dxfId="264" priority="39">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N9999">
-    <cfRule type="expression" dxfId="266" priority="40">
+    <cfRule type="expression" dxfId="263" priority="40">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="41">
+    <cfRule type="expression" dxfId="262" priority="41">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="42">
+    <cfRule type="expression" dxfId="261" priority="42">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O9999">
-    <cfRule type="expression" dxfId="263" priority="43">
+    <cfRule type="expression" dxfId="260" priority="43">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="44">
+    <cfRule type="expression" dxfId="259" priority="44">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="45">
+    <cfRule type="expression" dxfId="258" priority="45">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P9999">
-    <cfRule type="expression" dxfId="26" priority="46">
+    <cfRule type="expression" dxfId="257" priority="46">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="47">
+    <cfRule type="expression" dxfId="256" priority="47">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="48">
+    <cfRule type="expression" dxfId="255" priority="48">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q9999">
-    <cfRule type="expression" dxfId="23" priority="49">
+    <cfRule type="expression" dxfId="254" priority="49">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="50">
+    <cfRule type="expression" dxfId="253" priority="50">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="51">
+    <cfRule type="expression" dxfId="252" priority="51">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R9999">
-    <cfRule type="expression" dxfId="20" priority="52">
+    <cfRule type="expression" dxfId="251" priority="52">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="53">
+    <cfRule type="expression" dxfId="250" priority="53">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="54">
+    <cfRule type="expression" dxfId="249" priority="54">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S9999">
-    <cfRule type="expression" dxfId="17" priority="55">
+    <cfRule type="expression" dxfId="248" priority="55">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="56">
+    <cfRule type="expression" dxfId="247" priority="56">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="57">
+    <cfRule type="expression" dxfId="246" priority="57">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T9999">
-    <cfRule type="expression" dxfId="14" priority="58">
+    <cfRule type="expression" dxfId="245" priority="58">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="59">
+    <cfRule type="expression" dxfId="244" priority="59">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="60">
+    <cfRule type="expression" dxfId="243" priority="60">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:U9999">
-    <cfRule type="expression" dxfId="11" priority="61">
+    <cfRule type="expression" dxfId="242" priority="61">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="62">
+    <cfRule type="expression" dxfId="241" priority="62">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="63">
+    <cfRule type="expression" dxfId="240" priority="63">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V9999">
-    <cfRule type="expression" dxfId="8" priority="64">
+    <cfRule type="expression" dxfId="239" priority="64">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="65">
+    <cfRule type="expression" dxfId="238" priority="65">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="66">
+    <cfRule type="expression" dxfId="237" priority="66">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W9999">
-    <cfRule type="expression" dxfId="5" priority="67">
+    <cfRule type="expression" dxfId="236" priority="67">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="68">
+    <cfRule type="expression" dxfId="235" priority="68">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="69">
+    <cfRule type="expression" dxfId="234" priority="69">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10:X9999">
-    <cfRule type="expression" dxfId="2" priority="70">
+    <cfRule type="expression" dxfId="233" priority="70">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="71">
+    <cfRule type="expression" dxfId="232" priority="71">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="72">
+    <cfRule type="expression" dxfId="231" priority="72">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y9999">
-    <cfRule type="expression" dxfId="260" priority="73">
+    <cfRule type="expression" dxfId="230" priority="73">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="74">
+    <cfRule type="expression" dxfId="229" priority="74">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="75">
+    <cfRule type="expression" dxfId="228" priority="75">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10:Z9999">
-    <cfRule type="expression" dxfId="257" priority="76">
+    <cfRule type="expression" dxfId="227" priority="76">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="77">
+    <cfRule type="expression" dxfId="226" priority="77">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="78">
+    <cfRule type="expression" dxfId="225" priority="78">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA9999">
-    <cfRule type="expression" dxfId="254" priority="79">
+    <cfRule type="expression" dxfId="224" priority="79">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="80">
+    <cfRule type="expression" dxfId="223" priority="80">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="81">
+    <cfRule type="expression" dxfId="222" priority="81">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AB9999">
-    <cfRule type="expression" dxfId="251" priority="82">
+    <cfRule type="expression" dxfId="221" priority="82">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="83">
+    <cfRule type="expression" dxfId="220" priority="83">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="84">
+    <cfRule type="expression" dxfId="219" priority="84">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC9999">
-    <cfRule type="expression" dxfId="248" priority="85">
+    <cfRule type="expression" dxfId="218" priority="85">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="86">
+    <cfRule type="expression" dxfId="217" priority="86">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="87">
+    <cfRule type="expression" dxfId="216" priority="87">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AD9999">
-    <cfRule type="expression" dxfId="245" priority="88">
+    <cfRule type="expression" dxfId="215" priority="88">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="89">
+    <cfRule type="expression" dxfId="214" priority="89">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="90">
+    <cfRule type="expression" dxfId="213" priority="90">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AE9999">
-    <cfRule type="expression" dxfId="242" priority="91">
+    <cfRule type="expression" dxfId="212" priority="91">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="92">
+    <cfRule type="expression" dxfId="211" priority="92">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="93">
+    <cfRule type="expression" dxfId="210" priority="93">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AF9999">
-    <cfRule type="expression" dxfId="239" priority="94">
+    <cfRule type="expression" dxfId="209" priority="94">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="95">
+    <cfRule type="expression" dxfId="208" priority="95">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="96">
+    <cfRule type="expression" dxfId="207" priority="96">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AG9999">
-    <cfRule type="expression" dxfId="236" priority="97">
+    <cfRule type="expression" dxfId="206" priority="97">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="98">
+    <cfRule type="expression" dxfId="205" priority="98">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="99">
+    <cfRule type="expression" dxfId="204" priority="99">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10:AH9999">
-    <cfRule type="expression" dxfId="233" priority="100">
+    <cfRule type="expression" dxfId="203" priority="100">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="101">
+    <cfRule type="expression" dxfId="202" priority="101">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="102">
+    <cfRule type="expression" dxfId="201" priority="102">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10:AI9999">
-    <cfRule type="expression" dxfId="230" priority="103">
+    <cfRule type="expression" dxfId="200" priority="103">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="104">
+    <cfRule type="expression" dxfId="199" priority="104">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="105">
+    <cfRule type="expression" dxfId="198" priority="105">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10:AJ9999">
-    <cfRule type="expression" dxfId="227" priority="106">
+    <cfRule type="expression" dxfId="197" priority="106">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="107">
+    <cfRule type="expression" dxfId="196" priority="107">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="108">
+    <cfRule type="expression" dxfId="195" priority="108">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AK9999">
-    <cfRule type="expression" dxfId="224" priority="109">
+    <cfRule type="expression" dxfId="194" priority="109">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="110">
+    <cfRule type="expression" dxfId="193" priority="110">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="111">
+    <cfRule type="expression" dxfId="192" priority="111">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL9999">
-    <cfRule type="expression" dxfId="221" priority="112">
+    <cfRule type="expression" dxfId="191" priority="112">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="113">
+    <cfRule type="expression" dxfId="190" priority="113">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="114">
+    <cfRule type="expression" dxfId="189" priority="114">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10:AM9999">
-    <cfRule type="expression" dxfId="218" priority="115">
+    <cfRule type="expression" dxfId="188" priority="115">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="116">
+    <cfRule type="expression" dxfId="187" priority="116">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="117">
+    <cfRule type="expression" dxfId="186" priority="117">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10:AN9999">
-    <cfRule type="expression" dxfId="215" priority="118">
+    <cfRule type="expression" dxfId="185" priority="118">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="119">
+    <cfRule type="expression" dxfId="184" priority="119">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="120">
+    <cfRule type="expression" dxfId="183" priority="120">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO10:AO9999">
-    <cfRule type="expression" dxfId="212" priority="121">
+    <cfRule type="expression" dxfId="182" priority="121">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="122">
+    <cfRule type="expression" dxfId="181" priority="122">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="123">
+    <cfRule type="expression" dxfId="180" priority="123">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP10:AP9999">
-    <cfRule type="expression" dxfId="209" priority="124">
+    <cfRule type="expression" dxfId="179" priority="124">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="125">
+    <cfRule type="expression" dxfId="178" priority="125">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="126">
+    <cfRule type="expression" dxfId="177" priority="126">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AQ9999">
-    <cfRule type="expression" dxfId="206" priority="127">
+    <cfRule type="expression" dxfId="176" priority="127">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="128">
+    <cfRule type="expression" dxfId="175" priority="128">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="129">
+    <cfRule type="expression" dxfId="174" priority="129">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR10:AR9999">
-    <cfRule type="expression" dxfId="203" priority="130">
+    <cfRule type="expression" dxfId="173" priority="130">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="131">
+    <cfRule type="expression" dxfId="172" priority="131">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="132">
+    <cfRule type="expression" dxfId="171" priority="132">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS10:AS9999">
-    <cfRule type="expression" dxfId="200" priority="133">
+    <cfRule type="expression" dxfId="170" priority="133">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="134">
+    <cfRule type="expression" dxfId="169" priority="134">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="135">
+    <cfRule type="expression" dxfId="168" priority="135">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT10:AT9999">
-    <cfRule type="expression" dxfId="197" priority="136">
+    <cfRule type="expression" dxfId="167" priority="136">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="137">
+    <cfRule type="expression" dxfId="166" priority="137">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="138">
+    <cfRule type="expression" dxfId="165" priority="138">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU10:AU9999">
-    <cfRule type="expression" dxfId="194" priority="139">
+    <cfRule type="expression" dxfId="164" priority="139">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="140">
+    <cfRule type="expression" dxfId="163" priority="140">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="141">
+    <cfRule type="expression" dxfId="162" priority="141">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV10:AV9999">
-    <cfRule type="expression" dxfId="191" priority="142">
+    <cfRule type="expression" dxfId="161" priority="142">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="143">
+    <cfRule type="expression" dxfId="160" priority="143">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="144">
+    <cfRule type="expression" dxfId="159" priority="144">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW10:AW9999">
-    <cfRule type="expression" dxfId="188" priority="145">
+    <cfRule type="expression" dxfId="158" priority="145">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="146">
+    <cfRule type="expression" dxfId="157" priority="146">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="147">
+    <cfRule type="expression" dxfId="156" priority="147">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX10:AX9999">
-    <cfRule type="expression" dxfId="185" priority="148">
+    <cfRule type="expression" dxfId="155" priority="148">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="149">
+    <cfRule type="expression" dxfId="154" priority="149">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="150">
+    <cfRule type="expression" dxfId="153" priority="150">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY10:AY9999">
-    <cfRule type="expression" dxfId="182" priority="151">
+    <cfRule type="expression" dxfId="152" priority="151">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="152">
+    <cfRule type="expression" dxfId="151" priority="152">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="153">
+    <cfRule type="expression" dxfId="150" priority="153">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ10:AZ9999">
-    <cfRule type="expression" dxfId="179" priority="154">
+    <cfRule type="expression" dxfId="149" priority="154">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="155">
+    <cfRule type="expression" dxfId="148" priority="155">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="156">
+    <cfRule type="expression" dxfId="147" priority="156">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA10:BA9999">
-    <cfRule type="expression" dxfId="176" priority="157">
+    <cfRule type="expression" dxfId="146" priority="157">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="158">
+    <cfRule type="expression" dxfId="145" priority="158">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="159">
+    <cfRule type="expression" dxfId="144" priority="159">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB10:BB9999">
-    <cfRule type="expression" dxfId="173" priority="160">
+    <cfRule type="expression" dxfId="143" priority="160">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="161">
+    <cfRule type="expression" dxfId="142" priority="161">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="162">
+    <cfRule type="expression" dxfId="141" priority="162">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10:BC9999">
-    <cfRule type="expression" dxfId="170" priority="163">
+    <cfRule type="expression" dxfId="140" priority="163">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="164">
+    <cfRule type="expression" dxfId="139" priority="164">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="165">
+    <cfRule type="expression" dxfId="138" priority="165">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD10:BD9999">
-    <cfRule type="expression" dxfId="167" priority="166">
+    <cfRule type="expression" dxfId="137" priority="166">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="167">
+    <cfRule type="expression" dxfId="136" priority="167">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="168">
+    <cfRule type="expression" dxfId="135" priority="168">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE10:BE9999">
-    <cfRule type="expression" dxfId="164" priority="169">
+    <cfRule type="expression" dxfId="134" priority="169">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="170">
+    <cfRule type="expression" dxfId="133" priority="170">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="171">
+    <cfRule type="expression" dxfId="132" priority="171">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF10:BF9999">
-    <cfRule type="expression" dxfId="161" priority="172">
+    <cfRule type="expression" dxfId="131" priority="172">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="173">
+    <cfRule type="expression" dxfId="130" priority="173">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="174">
+    <cfRule type="expression" dxfId="129" priority="174">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG10:BG9999">
-    <cfRule type="expression" dxfId="158" priority="175">
+    <cfRule type="expression" dxfId="128" priority="175">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="176">
+    <cfRule type="expression" dxfId="127" priority="176">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="177">
+    <cfRule type="expression" dxfId="126" priority="177">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH10:BH9999">
-    <cfRule type="expression" dxfId="155" priority="178">
+    <cfRule type="expression" dxfId="125" priority="178">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="179">
+    <cfRule type="expression" dxfId="124" priority="179">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="180">
+    <cfRule type="expression" dxfId="123" priority="180">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI10:BI9999">
-    <cfRule type="expression" dxfId="152" priority="181">
+    <cfRule type="expression" dxfId="122" priority="181">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="182">
+    <cfRule type="expression" dxfId="121" priority="182">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="183">
+    <cfRule type="expression" dxfId="120" priority="183">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ10:BJ9999">
-    <cfRule type="expression" dxfId="149" priority="184">
+    <cfRule type="expression" dxfId="119" priority="184">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="185">
+    <cfRule type="expression" dxfId="118" priority="185">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="186">
+    <cfRule type="expression" dxfId="117" priority="186">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK10:BK9999">
-    <cfRule type="expression" dxfId="146" priority="187">
+    <cfRule type="expression" dxfId="116" priority="187">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="188">
+    <cfRule type="expression" dxfId="115" priority="188">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="189">
+    <cfRule type="expression" dxfId="114" priority="189">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL10:BL9999">
-    <cfRule type="expression" dxfId="143" priority="190">
+    <cfRule type="expression" dxfId="113" priority="190">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="191">
+    <cfRule type="expression" dxfId="112" priority="191">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="192">
+    <cfRule type="expression" dxfId="111" priority="192">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM10:BM9999">
-    <cfRule type="expression" dxfId="140" priority="193">
+    <cfRule type="expression" dxfId="110" priority="193">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="194">
+    <cfRule type="expression" dxfId="109" priority="194">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="195">
+    <cfRule type="expression" dxfId="108" priority="195">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN10:BN9999">
-    <cfRule type="expression" dxfId="137" priority="196">
+    <cfRule type="expression" dxfId="107" priority="196">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="197">
+    <cfRule type="expression" dxfId="106" priority="197">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="198">
+    <cfRule type="expression" dxfId="105" priority="198">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO10:BO9999">
-    <cfRule type="expression" dxfId="134" priority="199">
+    <cfRule type="expression" dxfId="104" priority="199">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="200">
+    <cfRule type="expression" dxfId="103" priority="200">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="201">
+    <cfRule type="expression" dxfId="102" priority="201">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP10:BP9999">
-    <cfRule type="expression" dxfId="131" priority="202">
+    <cfRule type="expression" dxfId="101" priority="202">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="203">
+    <cfRule type="expression" dxfId="100" priority="203">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="204">
+    <cfRule type="expression" dxfId="99" priority="204">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ10:BQ9999">
-    <cfRule type="expression" dxfId="128" priority="205">
+    <cfRule type="expression" dxfId="98" priority="205">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="206">
+    <cfRule type="expression" dxfId="97" priority="206">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="207">
+    <cfRule type="expression" dxfId="96" priority="207">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR10:BR9999">
-    <cfRule type="expression" dxfId="125" priority="208">
+    <cfRule type="expression" dxfId="95" priority="208">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="209">
+    <cfRule type="expression" dxfId="94" priority="209">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="210">
+    <cfRule type="expression" dxfId="93" priority="210">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS10:BS9999">
-    <cfRule type="expression" dxfId="122" priority="211">
+    <cfRule type="expression" dxfId="92" priority="211">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="212">
+    <cfRule type="expression" dxfId="91" priority="212">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="213">
+    <cfRule type="expression" dxfId="90" priority="213">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT10:BT9999">
-    <cfRule type="expression" dxfId="119" priority="214">
+    <cfRule type="expression" dxfId="89" priority="214">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="215">
+    <cfRule type="expression" dxfId="88" priority="215">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="216">
+    <cfRule type="expression" dxfId="87" priority="216">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU10:BU9999">
-    <cfRule type="expression" dxfId="116" priority="217">
+    <cfRule type="expression" dxfId="86" priority="217">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="218">
+    <cfRule type="expression" dxfId="85" priority="218">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="219">
+    <cfRule type="expression" dxfId="84" priority="219">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV10:BV9999">
-    <cfRule type="expression" dxfId="113" priority="220">
+    <cfRule type="expression" dxfId="83" priority="220">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="221">
+    <cfRule type="expression" dxfId="82" priority="221">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="222">
+    <cfRule type="expression" dxfId="81" priority="222">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW10:BW9999">
-    <cfRule type="expression" dxfId="110" priority="223">
+    <cfRule type="expression" dxfId="80" priority="223">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="224">
+    <cfRule type="expression" dxfId="79" priority="224">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="225">
+    <cfRule type="expression" dxfId="78" priority="225">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX10:BX9999">
-    <cfRule type="expression" dxfId="107" priority="226">
+    <cfRule type="expression" dxfId="77" priority="226">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="227">
+    <cfRule type="expression" dxfId="76" priority="227">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="228">
+    <cfRule type="expression" dxfId="75" priority="228">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:BY9999">
-    <cfRule type="expression" dxfId="104" priority="229">
+    <cfRule type="expression" dxfId="74" priority="229">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="230">
+    <cfRule type="expression" dxfId="73" priority="230">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="231">
+    <cfRule type="expression" dxfId="72" priority="231">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ10:BZ9999">
-    <cfRule type="expression" dxfId="101" priority="232">
+    <cfRule type="expression" dxfId="71" priority="232">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="233">
+    <cfRule type="expression" dxfId="70" priority="233">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="234">
+    <cfRule type="expression" dxfId="69" priority="234">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA10:CA9999">
-    <cfRule type="expression" dxfId="98" priority="235">
+    <cfRule type="expression" dxfId="68" priority="235">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="236">
+    <cfRule type="expression" dxfId="67" priority="236">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="237">
+    <cfRule type="expression" dxfId="66" priority="237">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB10:CB9999">
-    <cfRule type="expression" dxfId="95" priority="238">
+    <cfRule type="expression" dxfId="65" priority="238">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="239">
+    <cfRule type="expression" dxfId="64" priority="239">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="240">
+    <cfRule type="expression" dxfId="63" priority="240">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC10:CC9999">
-    <cfRule type="expression" dxfId="92" priority="241">
+    <cfRule type="expression" dxfId="62" priority="241">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="242">
+    <cfRule type="expression" dxfId="61" priority="242">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="243">
+    <cfRule type="expression" dxfId="60" priority="243">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD10:CD9999">
-    <cfRule type="expression" dxfId="89" priority="244">
+    <cfRule type="expression" dxfId="59" priority="244">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="245">
+    <cfRule type="expression" dxfId="58" priority="245">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="246">
+    <cfRule type="expression" dxfId="57" priority="246">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE10:CE9999">
-    <cfRule type="expression" dxfId="86" priority="247">
+    <cfRule type="expression" dxfId="56" priority="247">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="248">
+    <cfRule type="expression" dxfId="55" priority="248">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="249">
+    <cfRule type="expression" dxfId="54" priority="249">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF10:CF9999">
-    <cfRule type="expression" dxfId="83" priority="250">
+    <cfRule type="expression" dxfId="53" priority="250">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="251">
+    <cfRule type="expression" dxfId="52" priority="251">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="252">
+    <cfRule type="expression" dxfId="51" priority="252">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG10:CG9999">
-    <cfRule type="expression" dxfId="80" priority="253">
+    <cfRule type="expression" dxfId="50" priority="253">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="254">
+    <cfRule type="expression" dxfId="49" priority="254">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="255">
+    <cfRule type="expression" dxfId="48" priority="255">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH10:CH9999">
-    <cfRule type="expression" dxfId="77" priority="256">
+    <cfRule type="expression" dxfId="47" priority="256">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="257">
+    <cfRule type="expression" dxfId="46" priority="257">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="258">
+    <cfRule type="expression" dxfId="45" priority="258">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI10:CI9999">
-    <cfRule type="expression" dxfId="74" priority="259">
+    <cfRule type="expression" dxfId="44" priority="259">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="260">
+    <cfRule type="expression" dxfId="43" priority="260">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="261">
+    <cfRule type="expression" dxfId="42" priority="261">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ10:CJ9999">
-    <cfRule type="expression" dxfId="71" priority="262">
+    <cfRule type="expression" dxfId="41" priority="262">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="263">
+    <cfRule type="expression" dxfId="40" priority="263">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="264">
+    <cfRule type="expression" dxfId="39" priority="264">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK10:CK9999">
-    <cfRule type="expression" dxfId="68" priority="265">
+    <cfRule type="expression" dxfId="38" priority="265">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="266">
+    <cfRule type="expression" dxfId="37" priority="266">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="267">
+    <cfRule type="expression" dxfId="36" priority="267">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL10:CL9999">
-    <cfRule type="expression" dxfId="65" priority="268">
+    <cfRule type="expression" dxfId="35" priority="268">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="269">
+    <cfRule type="expression" dxfId="34" priority="269">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="270">
+    <cfRule type="expression" dxfId="33" priority="270">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM10:CM9999">
-    <cfRule type="expression" dxfId="62" priority="271">
+    <cfRule type="expression" dxfId="32" priority="271">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="272">
+    <cfRule type="expression" dxfId="31" priority="272">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="273">
+    <cfRule type="expression" dxfId="30" priority="273">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN10:CN9999">
-    <cfRule type="expression" dxfId="59" priority="274">
+    <cfRule type="expression" dxfId="29" priority="274">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="275">
+    <cfRule type="expression" dxfId="28" priority="275">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="276">
+    <cfRule type="expression" dxfId="27" priority="276">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO10:CO9999">
-    <cfRule type="expression" dxfId="56" priority="277">
+    <cfRule type="expression" dxfId="26" priority="277">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="278">
+    <cfRule type="expression" dxfId="25" priority="278">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="279">
+    <cfRule type="expression" dxfId="24" priority="279">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP10:CP9999">
-    <cfRule type="expression" dxfId="53" priority="280">
+    <cfRule type="expression" dxfId="23" priority="280">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="281">
+    <cfRule type="expression" dxfId="22" priority="281">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="282">
+    <cfRule type="expression" dxfId="21" priority="282">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ10:CQ9999">
-    <cfRule type="expression" dxfId="50" priority="283">
+    <cfRule type="expression" dxfId="20" priority="283">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="284">
+    <cfRule type="expression" dxfId="19" priority="284">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="285">
+    <cfRule type="expression" dxfId="18" priority="285">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR10:CR9999">
-    <cfRule type="expression" dxfId="47" priority="286">
+    <cfRule type="expression" dxfId="17" priority="286">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="287">
+    <cfRule type="expression" dxfId="16" priority="287">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="288">
+    <cfRule type="expression" dxfId="15" priority="288">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS10:CS9999">
-    <cfRule type="expression" dxfId="44" priority="289">
+    <cfRule type="expression" dxfId="14" priority="289">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="290">
+    <cfRule type="expression" dxfId="13" priority="290">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="291">
+    <cfRule type="expression" dxfId="12" priority="291">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT10:CT9999">
-    <cfRule type="expression" dxfId="41" priority="292">
+    <cfRule type="expression" dxfId="11" priority="292">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="293">
+    <cfRule type="expression" dxfId="10" priority="293">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="294">
+    <cfRule type="expression" dxfId="9" priority="294">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU10:CU9999">
-    <cfRule type="expression" dxfId="38" priority="295">
+    <cfRule type="expression" dxfId="8" priority="295">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="296">
+    <cfRule type="expression" dxfId="7" priority="296">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="297">
+    <cfRule type="expression" dxfId="6" priority="297">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV10:CV9999">
-    <cfRule type="expression" dxfId="35" priority="298">
+    <cfRule type="expression" dxfId="5" priority="298">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="299">
+    <cfRule type="expression" dxfId="4" priority="299">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="300">
+    <cfRule type="expression" dxfId="3" priority="300">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW10:CW9999">
-    <cfRule type="expression" dxfId="32" priority="301">
+    <cfRule type="expression" dxfId="2" priority="301">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="302">
+    <cfRule type="expression" dxfId="1" priority="302">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="303">
+    <cfRule type="expression" dxfId="0" priority="303">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14781,8 +15049,11 @@
       <formula1>valid_values_vat_rate_eg</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AG16" r:id="rId1" xr:uid="{32367BCE-6447-480B-A044-0EDF4F1C7B73}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/images/noon/CardHolder/production/NIS.xlsx
+++ b/images/noon/CardHolder/production/NIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sage\PycharmProjects\noon-images\images\noon\CardHolder\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C0EEF-E0AF-42FE-947C-38476D36D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A0035E-04CD-4030-BF5A-04C0F7775A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="950">
   <si>
     <t>How do I fill in the template tab?</t>
   </si>
@@ -3912,12 +3912,21 @@
   <si>
     <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20on%20Grassland%20-%203.jpg</t>
   </si>
+  <si>
+    <t>Lanyard</t>
+  </si>
+  <si>
+    <t>Wrist Strap</t>
+  </si>
+  <si>
+    <t>Card Holder with Van Gogh's Almond Blossoms Oil Painting Neck Strap Lanyards For Keys Keychain Badge Holder ID Compatible with Credit Card / Student Card / Bus Card</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3989,6 +3998,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4311,60 +4326,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4376,21 +4350,62 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="GRAY_BACK_GROUND" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="GREEN_BACK_GROUND" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="LIGHT_GRAY_BACK_GROUND" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ORANGE_BACK_GROUND" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="PEACH_BACK_GROUND" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="RED_BACK_GROUND" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="YELLOW_BACK_GROUND" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8"/>
   </cellStyles>
   <dxfs count="303">
     <dxf>
@@ -9691,24 +9706,24 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="32"/>
+    <row r="1" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -9726,7 +9741,7 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -9757,7 +9772,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -9788,22 +9803,22 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="32"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -9821,22 +9836,22 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+    <row r="5" spans="1:29" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -9854,20 +9869,20 @@
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -9885,22 +9900,22 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -9918,24 +9933,24 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -9953,24 +9968,24 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -9988,24 +10003,24 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="30"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -10023,20 +10038,20 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -10054,22 +10069,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -10087,22 +10102,22 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+    <row r="13" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="44"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -10120,20 +10135,20 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="30"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -10151,22 +10166,22 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="35"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -10184,22 +10199,22 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="35"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -10217,7 +10232,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
       <c r="M17" s="21"/>
       <c r="N17" s="14"/>
@@ -10237,7 +10252,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="20"/>
       <c r="M18" s="21"/>
       <c r="N18" s="14"/>
@@ -10257,22 +10272,22 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -10290,22 +10305,22 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="30"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -10323,7 +10338,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10354,22 +10369,22 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="30"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
@@ -10387,22 +10402,22 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
     </row>
-    <row r="23" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="30"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -10420,7 +10435,7 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10451,22 +10466,22 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -10484,22 +10499,22 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
-    <row r="26" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="32"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="30"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -10517,7 +10532,7 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -10548,7 +10563,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -10579,22 +10594,22 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="32"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -10612,22 +10627,22 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
     </row>
-    <row r="30" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="32"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -10645,20 +10660,20 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="35"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="43"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -10676,22 +10691,22 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="44"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="39"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -10709,22 +10724,22 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
     </row>
-    <row r="33" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="30"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
@@ -10742,20 +10757,20 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="35"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="43"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -10773,22 +10788,22 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
     </row>
-    <row r="35" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="30"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -10806,22 +10821,22 @@
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
     </row>
-    <row r="36" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+    <row r="36" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -10839,7 +10854,7 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -10870,22 +10885,22 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="30"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -10903,37 +10918,37 @@
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="35"/>
-    </row>
-    <row r="40" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="49"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+    </row>
+    <row r="40" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -10951,37 +10966,37 @@
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="35"/>
-    </row>
-    <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="43"/>
+    </row>
+    <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="30"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -10999,22 +11014,22 @@
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
     </row>
-    <row r="43" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="30"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
@@ -11032,22 +11047,22 @@
       <c r="AB43" s="23"/>
       <c r="AC43" s="23"/>
     </row>
-    <row r="44" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="30"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
@@ -11065,37 +11080,37 @@
       <c r="AB44" s="24"/>
       <c r="AC44" s="24"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="35"/>
-    </row>
-    <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="43"/>
+    </row>
+    <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="30"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -11113,22 +11128,22 @@
       <c r="AB46" s="14"/>
       <c r="AC46" s="14"/>
     </row>
-    <row r="47" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="29"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="52"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
@@ -11146,39 +11161,9 @@
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
     </row>
-    <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B46:M46"/>
     <mergeCell ref="B47:M47"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A39:M39"/>
@@ -11187,6 +11172,36 @@
     <mergeCell ref="B42:M42"/>
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B46:M46"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11206,15 +11221,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
     <col min="4" max="5" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -11231,7 +11246,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -11248,7 +11263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -11265,7 +11280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -11282,7 +11297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -11299,7 +11314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -11316,7 +11331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -11333,7 +11348,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -11350,7 +11365,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -11367,7 +11382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -11384,7 +11399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -11401,7 +11416,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -11418,7 +11433,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -11435,7 +11450,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -11452,7 +11467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -11469,7 +11484,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -11486,7 +11501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -11499,7 +11514,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -11516,7 +11531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -11533,7 +11548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -11550,7 +11565,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -11567,7 +11582,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -11584,7 +11599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -11601,7 +11616,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -11618,7 +11633,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -11635,7 +11650,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -11652,7 +11667,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -11669,7 +11684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -11686,7 +11701,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -11703,7 +11718,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -11720,7 +11735,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -11747,78 +11762,78 @@
   <dimension ref="A1:CW25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="10" width="22.77734375" customWidth="1"/>
+    <col min="8" max="10" width="22.7109375" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
     <col min="19" max="20" width="12" customWidth="1"/>
-    <col min="21" max="23" width="22.77734375" customWidth="1"/>
-    <col min="24" max="24" width="19.21875" customWidth="1"/>
-    <col min="25" max="25" width="20.44140625" customWidth="1"/>
-    <col min="26" max="26" width="19.21875" customWidth="1"/>
-    <col min="27" max="27" width="25.21875" customWidth="1"/>
-    <col min="28" max="28" width="19.21875" customWidth="1"/>
-    <col min="29" max="30" width="25.21875" customWidth="1"/>
-    <col min="31" max="31" width="31.21875" customWidth="1"/>
-    <col min="32" max="32" width="49.21875" customWidth="1"/>
-    <col min="33" max="38" width="15.5546875" customWidth="1"/>
-    <col min="39" max="39" width="20.44140625" customWidth="1"/>
-    <col min="40" max="40" width="26.44140625" customWidth="1"/>
-    <col min="41" max="41" width="20.44140625" customWidth="1"/>
-    <col min="42" max="43" width="26.44140625" customWidth="1"/>
-    <col min="44" max="44" width="32.44140625" customWidth="1"/>
-    <col min="45" max="45" width="20.44140625" customWidth="1"/>
-    <col min="46" max="46" width="26.44140625" customWidth="1"/>
-    <col min="47" max="47" width="34.77734375" customWidth="1"/>
-    <col min="48" max="48" width="40.77734375" customWidth="1"/>
-    <col min="49" max="49" width="34.77734375" customWidth="1"/>
-    <col min="50" max="50" width="40.77734375" customWidth="1"/>
-    <col min="51" max="51" width="34.77734375" customWidth="1"/>
-    <col min="52" max="52" width="40.77734375" customWidth="1"/>
+    <col min="21" max="23" width="22.7109375" customWidth="1"/>
+    <col min="24" max="24" width="19.28515625" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" customWidth="1"/>
+    <col min="27" max="27" width="25.28515625" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" customWidth="1"/>
+    <col min="29" max="30" width="25.28515625" customWidth="1"/>
+    <col min="31" max="31" width="31.28515625" customWidth="1"/>
+    <col min="32" max="32" width="49.28515625" customWidth="1"/>
+    <col min="33" max="38" width="15.5703125" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" customWidth="1"/>
+    <col min="40" max="40" width="26.42578125" customWidth="1"/>
+    <col min="41" max="41" width="20.42578125" customWidth="1"/>
+    <col min="42" max="43" width="26.42578125" customWidth="1"/>
+    <col min="44" max="44" width="32.42578125" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" customWidth="1"/>
+    <col min="46" max="46" width="26.42578125" customWidth="1"/>
+    <col min="47" max="47" width="34.7109375" customWidth="1"/>
+    <col min="48" max="48" width="40.7109375" customWidth="1"/>
+    <col min="49" max="49" width="34.7109375" customWidth="1"/>
+    <col min="50" max="50" width="40.7109375" customWidth="1"/>
+    <col min="51" max="51" width="34.7109375" customWidth="1"/>
+    <col min="52" max="52" width="40.7109375" customWidth="1"/>
     <col min="53" max="53" width="12" customWidth="1"/>
-    <col min="54" max="55" width="19.21875" customWidth="1"/>
+    <col min="54" max="55" width="19.28515625" customWidth="1"/>
     <col min="56" max="56" width="18" customWidth="1"/>
-    <col min="57" max="58" width="25.21875" customWidth="1"/>
+    <col min="57" max="58" width="25.28515625" customWidth="1"/>
     <col min="59" max="60" width="30" customWidth="1"/>
-    <col min="61" max="62" width="26.44140625" customWidth="1"/>
-    <col min="63" max="63" width="58.77734375" customWidth="1"/>
-    <col min="64" max="64" width="40.77734375" customWidth="1"/>
-    <col min="65" max="65" width="49.21875" customWidth="1"/>
-    <col min="66" max="71" width="25.21875" customWidth="1"/>
-    <col min="72" max="74" width="26.44140625" customWidth="1"/>
-    <col min="75" max="75" width="58.77734375" customWidth="1"/>
-    <col min="76" max="76" width="40.77734375" customWidth="1"/>
-    <col min="77" max="77" width="49.21875" customWidth="1"/>
-    <col min="78" max="83" width="25.21875" customWidth="1"/>
-    <col min="84" max="86" width="26.44140625" customWidth="1"/>
-    <col min="87" max="91" width="13.21875" customWidth="1"/>
-    <col min="92" max="92" width="19.21875" customWidth="1"/>
-    <col min="93" max="93" width="25.21875" customWidth="1"/>
-    <col min="94" max="95" width="21.5546875" customWidth="1"/>
-    <col min="96" max="96" width="27.5546875" customWidth="1"/>
-    <col min="97" max="97" width="13.21875" customWidth="1"/>
-    <col min="98" max="98" width="19.21875" customWidth="1"/>
-    <col min="99" max="100" width="15.5546875" customWidth="1"/>
-    <col min="101" max="101" width="19.21875" customWidth="1"/>
+    <col min="61" max="62" width="26.42578125" customWidth="1"/>
+    <col min="63" max="63" width="58.7109375" customWidth="1"/>
+    <col min="64" max="64" width="40.7109375" customWidth="1"/>
+    <col min="65" max="65" width="49.28515625" customWidth="1"/>
+    <col min="66" max="71" width="25.28515625" customWidth="1"/>
+    <col min="72" max="74" width="26.42578125" customWidth="1"/>
+    <col min="75" max="75" width="58.7109375" customWidth="1"/>
+    <col min="76" max="76" width="40.7109375" customWidth="1"/>
+    <col min="77" max="77" width="49.28515625" customWidth="1"/>
+    <col min="78" max="83" width="25.28515625" customWidth="1"/>
+    <col min="84" max="86" width="26.42578125" customWidth="1"/>
+    <col min="87" max="91" width="13.28515625" customWidth="1"/>
+    <col min="92" max="92" width="19.28515625" customWidth="1"/>
+    <col min="93" max="93" width="25.28515625" customWidth="1"/>
+    <col min="94" max="95" width="21.5703125" customWidth="1"/>
+    <col min="96" max="96" width="27.5703125" customWidth="1"/>
+    <col min="97" max="97" width="13.28515625" customWidth="1"/>
+    <col min="98" max="98" width="19.28515625" customWidth="1"/>
+    <col min="99" max="100" width="15.5703125" customWidth="1"/>
+    <col min="101" max="101" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
@@ -11826,7 +11841,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -11836,22 +11851,22 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -11861,41 +11876,41 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-    </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -11905,22 +11920,22 @@
       <c r="D5" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -12225,7 +12240,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>139</v>
       </c>
@@ -12386,7 +12401,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -12691,7 +12706,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:101" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -12996,7 +13011,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -13012,9 +13027,24 @@
       <c r="G10" t="s">
         <v>895</v>
       </c>
+      <c r="H10" t="s">
+        <v>949</v>
+      </c>
       <c r="J10" t="s">
         <v>579</v>
       </c>
+      <c r="K10" t="s">
+        <v>478</v>
+      </c>
+      <c r="L10" t="s">
+        <v>947</v>
+      </c>
+      <c r="N10">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
+        <v>377</v>
+      </c>
       <c r="P10" t="s">
         <v>378</v>
       </c>
@@ -13027,6 +13057,9 @@
       <c r="S10" t="s">
         <v>460</v>
       </c>
+      <c r="T10" t="s">
+        <v>530</v>
+      </c>
       <c r="V10" t="s">
         <v>490</v>
       </c>
@@ -13036,7 +13069,7 @@
       <c r="X10" t="s">
         <v>507</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AF10" s="27" t="s">
         <v>896</v>
       </c>
       <c r="AG10" t="s">
@@ -13049,7 +13082,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -13068,6 +13101,18 @@
       <c r="J11" t="s">
         <v>579</v>
       </c>
+      <c r="K11" t="s">
+        <v>478</v>
+      </c>
+      <c r="L11" t="s">
+        <v>947</v>
+      </c>
+      <c r="N11">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
+        <v>377</v>
+      </c>
       <c r="P11" t="s">
         <v>378</v>
       </c>
@@ -13080,6 +13125,9 @@
       <c r="S11" t="s">
         <v>460</v>
       </c>
+      <c r="T11" t="s">
+        <v>530</v>
+      </c>
       <c r="V11" t="s">
         <v>490</v>
       </c>
@@ -13099,7 +13147,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -13118,6 +13166,18 @@
       <c r="J12" t="s">
         <v>579</v>
       </c>
+      <c r="K12" t="s">
+        <v>478</v>
+      </c>
+      <c r="L12" t="s">
+        <v>947</v>
+      </c>
+      <c r="N12">
+        <v>45</v>
+      </c>
+      <c r="O12" t="s">
+        <v>377</v>
+      </c>
       <c r="P12" t="s">
         <v>378</v>
       </c>
@@ -13130,6 +13190,9 @@
       <c r="S12" t="s">
         <v>460</v>
       </c>
+      <c r="T12" t="s">
+        <v>530</v>
+      </c>
       <c r="V12" t="s">
         <v>490</v>
       </c>
@@ -13152,7 +13215,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -13171,6 +13234,18 @@
       <c r="J13" t="s">
         <v>579</v>
       </c>
+      <c r="K13" t="s">
+        <v>478</v>
+      </c>
+      <c r="L13" t="s">
+        <v>947</v>
+      </c>
+      <c r="N13">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>377</v>
+      </c>
       <c r="P13" t="s">
         <v>378</v>
       </c>
@@ -13183,6 +13258,9 @@
       <c r="S13" t="s">
         <v>460</v>
       </c>
+      <c r="T13" t="s">
+        <v>530</v>
+      </c>
       <c r="V13" t="s">
         <v>490</v>
       </c>
@@ -13202,7 +13280,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -13221,6 +13299,18 @@
       <c r="J14" t="s">
         <v>579</v>
       </c>
+      <c r="K14" t="s">
+        <v>478</v>
+      </c>
+      <c r="L14" t="s">
+        <v>947</v>
+      </c>
+      <c r="N14">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
+        <v>377</v>
+      </c>
       <c r="P14" t="s">
         <v>378</v>
       </c>
@@ -13233,6 +13323,9 @@
       <c r="S14" t="s">
         <v>460</v>
       </c>
+      <c r="T14" t="s">
+        <v>530</v>
+      </c>
       <c r="V14" t="s">
         <v>490</v>
       </c>
@@ -13252,7 +13345,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -13271,6 +13364,18 @@
       <c r="J15" t="s">
         <v>579</v>
       </c>
+      <c r="K15" t="s">
+        <v>478</v>
+      </c>
+      <c r="L15" t="s">
+        <v>947</v>
+      </c>
+      <c r="N15">
+        <v>45</v>
+      </c>
+      <c r="O15" t="s">
+        <v>377</v>
+      </c>
       <c r="P15" t="s">
         <v>378</v>
       </c>
@@ -13283,6 +13388,9 @@
       <c r="S15" t="s">
         <v>460</v>
       </c>
+      <c r="T15" t="s">
+        <v>530</v>
+      </c>
       <c r="V15" t="s">
         <v>490</v>
       </c>
@@ -13305,7 +13413,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -13324,6 +13432,18 @@
       <c r="J16" t="s">
         <v>579</v>
       </c>
+      <c r="K16" t="s">
+        <v>478</v>
+      </c>
+      <c r="L16" t="s">
+        <v>947</v>
+      </c>
+      <c r="N16">
+        <v>45</v>
+      </c>
+      <c r="O16" t="s">
+        <v>377</v>
+      </c>
       <c r="P16" t="s">
         <v>378</v>
       </c>
@@ -13336,6 +13456,9 @@
       <c r="S16" t="s">
         <v>460</v>
       </c>
+      <c r="T16" t="s">
+        <v>401</v>
+      </c>
       <c r="V16" t="s">
         <v>490</v>
       </c>
@@ -13348,14 +13471,14 @@
       <c r="AF16" t="s">
         <v>917</v>
       </c>
-      <c r="AG16" s="57" t="s">
+      <c r="AG16" s="27" t="s">
         <v>918</v>
       </c>
       <c r="AH16" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -13374,6 +13497,18 @@
       <c r="J17" t="s">
         <v>579</v>
       </c>
+      <c r="K17" t="s">
+        <v>478</v>
+      </c>
+      <c r="L17" t="s">
+        <v>947</v>
+      </c>
+      <c r="N17">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
+        <v>377</v>
+      </c>
       <c r="P17" t="s">
         <v>378</v>
       </c>
@@ -13386,6 +13521,9 @@
       <c r="S17" t="s">
         <v>460</v>
       </c>
+      <c r="T17" t="s">
+        <v>401</v>
+      </c>
       <c r="V17" t="s">
         <v>490</v>
       </c>
@@ -13405,7 +13543,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13424,6 +13562,18 @@
       <c r="J18" t="s">
         <v>579</v>
       </c>
+      <c r="K18" t="s">
+        <v>478</v>
+      </c>
+      <c r="L18" t="s">
+        <v>947</v>
+      </c>
+      <c r="N18">
+        <v>45</v>
+      </c>
+      <c r="O18" t="s">
+        <v>377</v>
+      </c>
       <c r="P18" t="s">
         <v>378</v>
       </c>
@@ -13436,6 +13586,9 @@
       <c r="S18" t="s">
         <v>460</v>
       </c>
+      <c r="T18" t="s">
+        <v>401</v>
+      </c>
       <c r="V18" t="s">
         <v>490</v>
       </c>
@@ -13455,7 +13608,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -13474,6 +13627,18 @@
       <c r="J19" t="s">
         <v>579</v>
       </c>
+      <c r="K19" t="s">
+        <v>478</v>
+      </c>
+      <c r="L19" t="s">
+        <v>947</v>
+      </c>
+      <c r="N19">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>377</v>
+      </c>
       <c r="P19" t="s">
         <v>378</v>
       </c>
@@ -13486,6 +13651,9 @@
       <c r="S19" t="s">
         <v>460</v>
       </c>
+      <c r="T19" t="s">
+        <v>401</v>
+      </c>
       <c r="V19" t="s">
         <v>490</v>
       </c>
@@ -13505,7 +13673,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -13524,6 +13692,18 @@
       <c r="J20" t="s">
         <v>579</v>
       </c>
+      <c r="K20" t="s">
+        <v>478</v>
+      </c>
+      <c r="L20" t="s">
+        <v>947</v>
+      </c>
+      <c r="N20">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>377</v>
+      </c>
       <c r="P20" t="s">
         <v>378</v>
       </c>
@@ -13536,6 +13716,9 @@
       <c r="S20" t="s">
         <v>460</v>
       </c>
+      <c r="T20" t="s">
+        <v>401</v>
+      </c>
       <c r="V20" t="s">
         <v>490</v>
       </c>
@@ -13555,7 +13738,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -13574,6 +13757,12 @@
       <c r="J21" t="s">
         <v>579</v>
       </c>
+      <c r="K21" t="s">
+        <v>478</v>
+      </c>
+      <c r="L21" t="s">
+        <v>948</v>
+      </c>
       <c r="P21" t="s">
         <v>378</v>
       </c>
@@ -13586,6 +13775,9 @@
       <c r="S21" t="s">
         <v>460</v>
       </c>
+      <c r="T21" t="s">
+        <v>401</v>
+      </c>
       <c r="V21" t="s">
         <v>490</v>
       </c>
@@ -13593,7 +13785,7 @@
         <v>490</v>
       </c>
       <c r="X21" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AF21" t="s">
         <v>932</v>
@@ -13605,7 +13797,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -13624,6 +13816,12 @@
       <c r="J22" t="s">
         <v>579</v>
       </c>
+      <c r="K22" t="s">
+        <v>478</v>
+      </c>
+      <c r="L22" t="s">
+        <v>948</v>
+      </c>
       <c r="P22" t="s">
         <v>378</v>
       </c>
@@ -13636,6 +13834,9 @@
       <c r="S22" t="s">
         <v>460</v>
       </c>
+      <c r="T22" t="s">
+        <v>401</v>
+      </c>
       <c r="V22" t="s">
         <v>490</v>
       </c>
@@ -13643,7 +13844,7 @@
         <v>490</v>
       </c>
       <c r="X22" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AF22" t="s">
         <v>935</v>
@@ -13655,7 +13856,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13674,6 +13875,12 @@
       <c r="J23" t="s">
         <v>579</v>
       </c>
+      <c r="K23" t="s">
+        <v>478</v>
+      </c>
+      <c r="L23" t="s">
+        <v>948</v>
+      </c>
       <c r="P23" t="s">
         <v>378</v>
       </c>
@@ -13686,6 +13893,9 @@
       <c r="S23" t="s">
         <v>460</v>
       </c>
+      <c r="T23" t="s">
+        <v>401</v>
+      </c>
       <c r="V23" t="s">
         <v>490</v>
       </c>
@@ -13693,7 +13903,7 @@
         <v>490</v>
       </c>
       <c r="X23" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AF23" t="s">
         <v>938</v>
@@ -13705,7 +13915,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -13724,6 +13934,12 @@
       <c r="J24" t="s">
         <v>579</v>
       </c>
+      <c r="K24" t="s">
+        <v>478</v>
+      </c>
+      <c r="L24" t="s">
+        <v>948</v>
+      </c>
       <c r="P24" t="s">
         <v>378</v>
       </c>
@@ -13736,6 +13952,9 @@
       <c r="S24" t="s">
         <v>460</v>
       </c>
+      <c r="T24" t="s">
+        <v>401</v>
+      </c>
       <c r="V24" t="s">
         <v>490</v>
       </c>
@@ -13743,7 +13962,7 @@
         <v>490</v>
       </c>
       <c r="X24" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AF24" t="s">
         <v>941</v>
@@ -13755,7 +13974,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -13774,6 +13993,12 @@
       <c r="J25" t="s">
         <v>579</v>
       </c>
+      <c r="K25" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" t="s">
+        <v>948</v>
+      </c>
       <c r="P25" t="s">
         <v>378</v>
       </c>
@@ -13786,6 +14011,9 @@
       <c r="S25" t="s">
         <v>460</v>
       </c>
+      <c r="T25" t="s">
+        <v>401</v>
+      </c>
       <c r="V25" t="s">
         <v>490</v>
       </c>
@@ -13793,7 +14021,7 @@
         <v>490</v>
       </c>
       <c r="X25" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="AF25" t="s">
         <v>944</v>
@@ -13812,6 +14040,7 @@
     <mergeCell ref="E4:P4"/>
     <mergeCell ref="E5:P5"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A10:A9999">
     <cfRule type="expression" dxfId="302" priority="1">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
@@ -15051,9 +15280,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="AG16" r:id="rId1" xr:uid="{32367BCE-6447-480B-A044-0EDF4F1C7B73}"/>
+    <hyperlink ref="AF10" r:id="rId2" xr:uid="{77F4B954-F5AA-47EF-B913-0ED9E101DEEB}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15063,9 +15293,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>272</v>
       </c>
@@ -15190,7 +15420,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -15315,7 +15545,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>395</v>
       </c>
@@ -15416,7 +15646,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>414</v>
       </c>
@@ -15505,7 +15735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>429</v>
       </c>
@@ -15570,7 +15800,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>444</v>
       </c>
@@ -15614,7 +15844,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>457</v>
       </c>
@@ -15655,7 +15885,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>465</v>
       </c>
@@ -15693,7 +15923,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>477</v>
       </c>
@@ -15731,7 +15961,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>486</v>
       </c>
@@ -15766,7 +15996,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>494</v>
       </c>
@@ -15795,7 +16025,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>503</v>
       </c>
@@ -15824,7 +16054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>510</v>
       </c>
@@ -15850,7 +16080,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>517</v>
       </c>
@@ -15876,7 +16106,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>523</v>
       </c>
@@ -15899,7 +16129,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>528</v>
       </c>
@@ -15922,7 +16152,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>533</v>
       </c>
@@ -15942,7 +16172,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>537</v>
       </c>
@@ -15959,7 +16189,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>542</v>
       </c>
@@ -15976,7 +16206,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>546</v>
       </c>
@@ -15993,7 +16223,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>550</v>
       </c>
@@ -16007,7 +16237,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>553</v>
       </c>
@@ -16021,7 +16251,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>557</v>
       </c>
@@ -16032,7 +16262,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>560</v>
       </c>
@@ -16043,7 +16273,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>562</v>
       </c>
@@ -16051,7 +16281,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>563</v>
       </c>
@@ -16059,7 +16289,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>565</v>
       </c>
@@ -16067,7 +16297,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>566</v>
       </c>
@@ -16075,7 +16305,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>567</v>
       </c>
@@ -16083,7 +16313,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>568</v>
       </c>
@@ -16091,7 +16321,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>570</v>
       </c>
@@ -16099,7 +16329,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>572</v>
       </c>
@@ -16107,7 +16337,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>573</v>
       </c>
@@ -16115,7 +16345,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>574</v>
       </c>
@@ -16123,7 +16353,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>576</v>
       </c>
@@ -16131,7 +16361,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>577</v>
       </c>
@@ -16139,7 +16369,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>579</v>
       </c>
@@ -16147,7 +16377,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>581</v>
       </c>
@@ -16155,792 +16385,792 @@
         <v>549</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E126" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E127" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E130" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E132" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E133" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E135" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E136" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E137" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E138" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E146" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E147" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E152" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E155" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E159" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E160" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E161" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E162" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E163" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E164" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E165" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E166" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E167" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E168" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E169" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E170" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E171" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E172" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E173" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E174" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E175" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E176" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E177" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E179" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E182" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E184" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E185" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E186" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E187" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E188" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E189" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E190" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E191" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E192" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E193" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E194" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E195" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E196" t="s">
         <v>739</v>
       </c>
@@ -16957,7 +17187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -16970,7 +17200,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>740</v>
       </c>
@@ -16999,7 +17229,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -17028,7 +17258,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -17051,7 +17281,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -17071,7 +17301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -17091,7 +17321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -17108,7 +17338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17125,7 +17355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>98</v>
       </c>
@@ -17133,17 +17363,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>52</v>
       </c>
@@ -17160,41 +17390,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
     <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" customWidth="1"/>
-    <col min="22" max="22" width="27.5546875" customWidth="1"/>
-    <col min="23" max="23" width="13.21875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="20.44140625" customWidth="1"/>
-    <col min="26" max="26" width="21.5546875" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" customWidth="1"/>
-    <col min="28" max="28" width="16.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.21875" customWidth="1"/>
-    <col min="30" max="30" width="21.5546875" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="27.5703125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" customWidth="1"/>
+    <col min="26" max="26" width="21.5703125" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="13.28515625" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>749</v>
       </c>
@@ -17286,7 +17516,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>276</v>
       </c>
@@ -17378,7 +17608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>279</v>
       </c>
@@ -17470,7 +17700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>280</v>
       </c>
@@ -17562,7 +17792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>778</v>
       </c>
@@ -17654,7 +17884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -17746,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>304</v>
       </c>
@@ -17838,7 +18068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>305</v>
       </c>
@@ -17930,7 +18160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>306</v>
       </c>
@@ -18022,7 +18252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>307</v>
       </c>
@@ -18114,7 +18344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>308</v>
       </c>
@@ -18206,7 +18436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>309</v>
       </c>
@@ -18298,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>779</v>
       </c>
@@ -18390,7 +18620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>780</v>
       </c>
@@ -18482,7 +18712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>781</v>
       </c>
@@ -18574,7 +18804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>782</v>
       </c>
@@ -18666,7 +18896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>783</v>
       </c>
@@ -18758,7 +18988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>784</v>
       </c>
@@ -18850,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>785</v>
       </c>
@@ -18942,7 +19172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>786</v>
       </c>
@@ -19034,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>787</v>
       </c>
@@ -19126,7 +19356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>788</v>
       </c>
@@ -19218,7 +19448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>789</v>
       </c>
@@ -19310,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>790</v>
       </c>
@@ -19402,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>791</v>
       </c>
@@ -19494,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>792</v>
       </c>
@@ -19586,7 +19816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>793</v>
       </c>
@@ -19678,7 +19908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>794</v>
       </c>
@@ -19770,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>795</v>
       </c>
@@ -19862,7 +20092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>796</v>
       </c>
@@ -19954,7 +20184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>797</v>
       </c>
@@ -20046,7 +20276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>798</v>
       </c>
@@ -20138,7 +20368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>799</v>
       </c>
@@ -20230,7 +20460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>800</v>
       </c>
@@ -20322,7 +20552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>801</v>
       </c>
@@ -20414,7 +20644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>802</v>
       </c>
@@ -20506,7 +20736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>803</v>
       </c>
@@ -20598,7 +20828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>804</v>
       </c>
@@ -20690,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>805</v>
       </c>
@@ -20782,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>806</v>
       </c>
@@ -20874,7 +21104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>807</v>
       </c>
@@ -20966,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>808</v>
       </c>
@@ -21058,7 +21288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>809</v>
       </c>
@@ -21150,7 +21380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>810</v>
       </c>
@@ -21242,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>811</v>
       </c>
@@ -21334,7 +21564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>812</v>
       </c>
@@ -21426,7 +21656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>813</v>
       </c>
@@ -21518,7 +21748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>814</v>
       </c>
@@ -21610,7 +21840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>815</v>
       </c>
@@ -21702,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>816</v>
       </c>
@@ -21794,7 +22024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>817</v>
       </c>
@@ -21886,7 +22116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>818</v>
       </c>
@@ -21978,7 +22208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>819</v>
       </c>
@@ -22070,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>820</v>
       </c>
@@ -22162,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>821</v>
       </c>
@@ -22254,7 +22484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>822</v>
       </c>
@@ -22346,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>823</v>
       </c>
@@ -22438,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>824</v>
       </c>
@@ -22530,7 +22760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>825</v>
       </c>
@@ -22622,7 +22852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>826</v>
       </c>
@@ -22714,7 +22944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>827</v>
       </c>
@@ -22806,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>828</v>
       </c>
@@ -22898,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>829</v>
       </c>
@@ -22990,7 +23220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>830</v>
       </c>
@@ -23082,7 +23312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>831</v>
       </c>
@@ -23174,7 +23404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>832</v>
       </c>
@@ -23266,7 +23496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>833</v>
       </c>
@@ -23358,7 +23588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>834</v>
       </c>
@@ -23450,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>835</v>
       </c>
@@ -23542,7 +23772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>836</v>
       </c>
@@ -23634,7 +23864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>837</v>
       </c>
@@ -23726,7 +23956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>838</v>
       </c>
@@ -23818,7 +24048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>839</v>
       </c>
@@ -23910,7 +24140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>840</v>
       </c>
@@ -24002,7 +24232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>841</v>
       </c>
@@ -24094,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>842</v>
       </c>
@@ -24186,7 +24416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>843</v>
       </c>
@@ -24278,7 +24508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>844</v>
       </c>
@@ -24370,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>845</v>
       </c>
@@ -24462,7 +24692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>846</v>
       </c>
@@ -24554,7 +24784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>847</v>
       </c>
@@ -24646,7 +24876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>848</v>
       </c>
@@ -24738,7 +24968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>849</v>
       </c>
@@ -24830,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>850</v>
       </c>
@@ -24922,7 +25152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>851</v>
       </c>
@@ -25014,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>272</v>
       </c>
@@ -25106,7 +25336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>273</v>
       </c>
@@ -25198,7 +25428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
@@ -25290,7 +25520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>278</v>
       </c>
@@ -25382,7 +25612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>275</v>
       </c>
@@ -25474,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>281</v>
       </c>
@@ -25566,7 +25796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>289</v>
       </c>
@@ -25658,7 +25888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>284</v>
       </c>
@@ -25750,7 +25980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>283</v>
       </c>
@@ -25842,7 +26072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>286</v>
       </c>
@@ -25934,7 +26164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>297</v>
       </c>
@@ -26026,7 +26256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>299</v>
       </c>
@@ -26118,7 +26348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>301</v>
       </c>
@@ -26210,7 +26440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>852</v>
       </c>
@@ -26302,7 +26532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>334</v>
       </c>
@@ -26394,7 +26624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>335</v>
       </c>
@@ -26486,7 +26716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>336</v>
       </c>
@@ -26578,7 +26808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>337</v>
       </c>
@@ -26670,7 +26900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>338</v>
       </c>
@@ -26762,7 +26992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>339</v>
       </c>
@@ -26854,7 +27084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>340</v>
       </c>
@@ -26946,7 +27176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>341</v>
       </c>
@@ -27038,7 +27268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>342</v>
       </c>
@@ -27130,7 +27360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
@@ -27222,7 +27452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>344</v>
       </c>
@@ -27314,7 +27544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>345</v>
       </c>
@@ -27406,7 +27636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>346</v>
       </c>
@@ -27498,7 +27728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>347</v>
       </c>
@@ -27590,7 +27820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>348</v>
       </c>
@@ -27682,7 +27912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>349</v>
       </c>
@@ -27774,7 +28004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>350</v>
       </c>
@@ -27866,7 +28096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>351</v>
       </c>
@@ -27958,7 +28188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>352</v>
       </c>
@@ -28050,7 +28280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>353</v>
       </c>
@@ -28142,7 +28372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>354</v>
       </c>
@@ -28234,7 +28464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>355</v>
       </c>
@@ -28326,7 +28556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>356</v>
       </c>
@@ -28418,7 +28648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>357</v>
       </c>
@@ -28510,7 +28740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>310</v>
       </c>
@@ -28602,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>312</v>
       </c>
@@ -28694,7 +28924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>314</v>
       </c>
@@ -28786,7 +29016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>316</v>
       </c>
@@ -28878,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>325</v>
       </c>
@@ -28970,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>326</v>
       </c>
@@ -29062,7 +29292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>327</v>
       </c>
@@ -29154,7 +29384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>363</v>
       </c>
@@ -29246,7 +29476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>328</v>
       </c>
@@ -29338,7 +29568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>329</v>
       </c>
@@ -29430,7 +29660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>282</v>
       </c>
@@ -29522,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>366</v>
       </c>
@@ -29614,7 +29844,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>292</v>
       </c>
@@ -29706,7 +29936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>293</v>
       </c>
@@ -29798,7 +30028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>294</v>
       </c>
@@ -29890,7 +30120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>295</v>
       </c>
@@ -29982,7 +30212,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>296</v>
       </c>
@@ -30074,7 +30304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>291</v>
       </c>
@@ -30166,7 +30396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>318</v>
       </c>
@@ -30258,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>320</v>
       </c>
@@ -30350,7 +30580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>290</v>
       </c>
@@ -30442,7 +30672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>324</v>
       </c>
@@ -30534,7 +30764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>322</v>
       </c>
@@ -30626,7 +30856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>287</v>
       </c>
@@ -30718,7 +30948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>288</v>
       </c>
@@ -30810,7 +31040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>330</v>
       </c>
@@ -30902,7 +31132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>331</v>
       </c>
@@ -30994,7 +31224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>332</v>
       </c>
@@ -31086,7 +31316,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>333</v>
       </c>
@@ -31178,7 +31408,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>277</v>
       </c>
@@ -31270,7 +31500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>853</v>
       </c>
@@ -31362,7 +31592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>854</v>
       </c>
@@ -31454,7 +31684,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>855</v>
       </c>
@@ -31546,7 +31776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>856</v>
       </c>
@@ -31638,7 +31868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>857</v>
       </c>
@@ -31730,7 +31960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>858</v>
       </c>
@@ -31822,7 +32052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>859</v>
       </c>
@@ -31914,7 +32144,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>285</v>
       </c>
@@ -32006,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>860</v>
       </c>
@@ -32098,7 +32328,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>861</v>
       </c>
@@ -32190,7 +32420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>862</v>
       </c>
@@ -32282,7 +32512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>863</v>
       </c>
@@ -32374,7 +32604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>864</v>
       </c>
@@ -32466,7 +32696,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>865</v>
       </c>
@@ -32558,7 +32788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>367</v>
       </c>
@@ -32650,7 +32880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>866</v>
       </c>
@@ -32742,7 +32972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>358</v>
       </c>
@@ -32834,7 +33064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>359</v>
       </c>
@@ -32926,7 +33156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>360</v>
       </c>
@@ -33018,7 +33248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>361</v>
       </c>
@@ -33110,7 +33340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>362</v>
       </c>
@@ -33202,7 +33432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>365</v>
       </c>
@@ -33294,7 +33524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>867</v>
       </c>
@@ -33386,7 +33616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>868</v>
       </c>
@@ -33478,7 +33708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>869</v>
       </c>
@@ -33570,7 +33800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>870</v>
       </c>
@@ -33662,7 +33892,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>871</v>
       </c>
@@ -33754,7 +33984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>371</v>
       </c>
@@ -33846,7 +34076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>372</v>
       </c>
@@ -33938,7 +34168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>370</v>
       </c>
@@ -34030,7 +34260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>872</v>
       </c>
@@ -34122,7 +34352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -34214,7 +34444,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>873</v>
       </c>
@@ -34306,7 +34536,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>874</v>
       </c>
@@ -34398,7 +34628,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>875</v>
       </c>
@@ -34490,7 +34720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>876</v>
       </c>
@@ -34582,7 +34812,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>877</v>
       </c>
@@ -34674,7 +34904,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>878</v>
       </c>
@@ -34766,7 +34996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>369</v>
       </c>
@@ -34858,7 +35088,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>298</v>
       </c>
@@ -34950,7 +35180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>300</v>
       </c>
@@ -35042,7 +35272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>302</v>
       </c>
@@ -35134,7 +35364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>311</v>
       </c>
@@ -35226,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>313</v>
       </c>
@@ -35318,7 +35548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>315</v>
       </c>
@@ -35410,7 +35640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>317</v>
       </c>
@@ -35502,7 +35732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>364</v>
       </c>

--- a/images/noon/CardHolder/production/NIS.xlsx
+++ b/images/noon/CardHolder/production/NIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sage\PycharmProjects\noon-images\images\noon\CardHolder\production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A0035E-04CD-4030-BF5A-04C0F7775A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097D3BC-EF89-45B5-B70A-598306001C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instructions" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1008">
   <si>
     <t>How do I fill in the template tab?</t>
   </si>
@@ -3913,13 +3913,187 @@
     <t>https://raw.githubusercontent.com/SageCat/noon-images/main/images/noon/CardHolder/production/Totoro/Card%20Holder%20with%20Wrist%20Strap%20-%20Totoro%20on%20Grassland%20-%203.jpg</t>
   </si>
   <si>
-    <t>Lanyard</t>
-  </si>
-  <si>
-    <t>Wrist Strap</t>
-  </si>
-  <si>
-    <t>Card Holder with Van Gogh's Almond Blossoms Oil Painting Neck Strap Lanyards For Keys Keychain Badge Holder ID Compatible with Credit Card / Student Card / Bus Card</t>
+    <t>Card Holder with Wrist Strap Totoro and Rabbit Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Wrist Strap Totoro Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Wrist Strap Totoro and Snorlax Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Wrist Strap Totoro and the Mysterious Girl Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Wrist Strap Totoro on Grassland Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Almond Blossoms</t>
+  </si>
+  <si>
+    <t>Sunflowers A</t>
+  </si>
+  <si>
+    <t>Sunflowers B</t>
+  </si>
+  <si>
+    <t>Totoro and the Mysterious Girl</t>
+  </si>
+  <si>
+    <t>Starry Night A</t>
+  </si>
+  <si>
+    <t>Starry Night B</t>
+  </si>
+  <si>
+    <t>Starry Night over the Rhone</t>
+  </si>
+  <si>
+    <t>Totoro</t>
+  </si>
+  <si>
+    <t>Detachable Lanyard</t>
+  </si>
+  <si>
+    <t>Detachable Wrist Strap</t>
+  </si>
+  <si>
+    <t>Unique Design</t>
+  </si>
+  <si>
+    <t>Durable ID Holder</t>
+  </si>
+  <si>
+    <t>الحبل للانفصال</t>
+  </si>
+  <si>
+    <t>تصميم فريد</t>
+  </si>
+  <si>
+    <t>حامل هوية متين</t>
+  </si>
+  <si>
+    <t>Totoro and Rabbit</t>
+  </si>
+  <si>
+    <t>Totoro and Snorlax</t>
+  </si>
+  <si>
+    <t>Totoro on Grassland</t>
+  </si>
+  <si>
+    <t>أزهار اللوز</t>
+  </si>
+  <si>
+    <t>ليلة مرصعة بالنجوم أ</t>
+  </si>
+  <si>
+    <t>ليلة مرصعة بالنجوم ب</t>
+  </si>
+  <si>
+    <t>نجوم الليل اعلي نهر الرون</t>
+  </si>
+  <si>
+    <t>عباد الشمس أ</t>
+  </si>
+  <si>
+    <t>عباد الشمس ب</t>
+  </si>
+  <si>
+    <t>توتورو</t>
+  </si>
+  <si>
+    <t>توتورو والأرنب</t>
+  </si>
+  <si>
+    <t>توتورو وسنورلاكس</t>
+  </si>
+  <si>
+    <t>توتورو والفتاة الغامضة</t>
+  </si>
+  <si>
+    <t>توتورو في الأراضي العشبية</t>
+  </si>
+  <si>
+    <t>حامل بطاقة مع شريط للرقبة، لوحة زيتية لأزهار اللوز من فان جوخ للمفاتيح، حامل شارة سلسلة مفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام الرقبة اسهم فان جوخ ليلة مليئة بالنجوم (أ) لوحة زيتية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام الرقبة اسهم فان جوخ ليلة مرصعة بالنجوم (ب) لوحة زيتية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل بطاقة مع شريط للرقبة، لوحة زيتية فان جوخ مرصعة بالنجوم فوق نهر الرون للمفاتيح، حامل شارة سلسلة مفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل بطاقة مع اسهم حزام الرقبة عباد الشمس فان جوخ لوحة زيتية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع شريط الرقبة اسهم توتورو والأرنب اللوحة للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل بطاقة مع شريط للرقبة، توتورو ولوحة الفتاة الغامضة للمفاتيح، حامل شارة سلسلة مفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع شريط الرقبة اسهم توتورو على لوحة الأراضي العشبية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام المعصم لوحة توتورو للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام المعصم توتورو والأرنب اللوحة للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام المعصم توتورو ولوحة الفتاة الغامضة للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام المعصم توتورو على لوحة الأراضي العشبية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل بطاقة مع اسهم حزام الرقبة فان جوخ عباد الشمس لوحة زيتية للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع شريط الرقبة اسهم توتورو اللوحة للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع شريط الرقبة اسهم توتورو وتوتوروسنورلاكس  للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>حامل البطاقة مع حزام المعصم توتورو وتوتوروسنورلاكس  اللوحة للمفاتيح حامل شارة سلسلة المفاتيح متوافق مع بطاقة الائتمان / بطاقة الطالب / بطاقة النقل بالحافلة</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Almond Blossoms Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Starry Night (A) Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Starry Night over the Rhone Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Starry Night (B) Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Sunflowers A Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Van Gogh's Sunflowers B Oil Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Totoro Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Totoro and Rabbit Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Totoro and Snorlax Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Totoro and the Mysterious Girl Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
+  </si>
+  <si>
+    <t>Card Holder with Neck Strap Lanyard Totoro on Grassland Painting For Keys Keychain Badge Holder Compatible with Credit Card / Student Card / Bus Transportation Card</t>
   </si>
 </sst>
 </file>
@@ -4327,18 +4501,60 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4350,48 +4566,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
@@ -4399,15 +4573,15 @@
   <cellStyles count="9">
     <cellStyle name="GRAY_BACK_GROUND" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="GREEN_BACK_GROUND" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="LIGHT_GRAY_BACK_GROUND" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ORANGE_BACK_GROUND" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="PEACH_BACK_GROUND" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="RED_BACK_GROUND" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="YELLOW_BACK_GROUND" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8"/>
   </cellStyles>
-  <dxfs count="303">
+  <dxfs count="306">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -8919,6 +9093,27 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFDFFFDF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006400"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006400"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006400"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006400"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
@@ -8941,27 +9136,6 @@
         </top>
         <bottom style="thin">
           <color rgb="FFFF0000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFDFFFDF"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF006400"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF006400"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF006400"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF006400"/>
         </bottom>
       </border>
     </dxf>
@@ -9090,6 +9264,55 @@
           <color rgb="FFFF0000"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFDFFFDF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF006400"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF006400"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF006400"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF006400"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFDFDF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFF38D8D"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFF38D8D"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFF38D8D"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9706,24 +9929,24 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+    <row r="1" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="33"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -9741,7 +9964,7 @@
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
     </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -9772,7 +9995,7 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
     </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -9803,22 +10026,22 @@
       <c r="AB3" s="12"/>
       <c r="AC3" s="12"/>
     </row>
-    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -9836,22 +10059,22 @@
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
     </row>
-    <row r="5" spans="1:29" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="30"/>
+    <row r="5" spans="1:29" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -9869,20 +10092,20 @@
       <c r="AB5" s="15"/>
       <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="30"/>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
@@ -9900,22 +10123,22 @@
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
     </row>
-    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="30"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="14"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -9933,24 +10156,24 @@
       <c r="AB7" s="14"/>
       <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
@@ -9968,24 +10191,24 @@
       <c r="AB8" s="17"/>
       <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="33"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -10003,24 +10226,24 @@
       <c r="AB9" s="17"/>
       <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
@@ -10038,20 +10261,20 @@
       <c r="AB10" s="17"/>
       <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
+    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="41"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -10069,22 +10292,22 @@
       <c r="AB11" s="12"/>
       <c r="AC11" s="12"/>
     </row>
-    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
       <c r="P12" s="14"/>
@@ -10102,22 +10325,22 @@
       <c r="AB12" s="14"/>
       <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
@@ -10135,20 +10358,20 @@
       <c r="AB13" s="15"/>
       <c r="AC13" s="15"/>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="33"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -10166,22 +10389,22 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
     </row>
-    <row r="15" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="43"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -10199,22 +10422,22 @@
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
     </row>
-    <row r="16" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:29" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="43"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="36"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -10232,7 +10455,7 @@
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
     </row>
-    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="M17" s="21"/>
       <c r="N17" s="14"/>
@@ -10252,7 +10475,7 @@
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
       <c r="M18" s="21"/>
       <c r="N18" s="14"/>
@@ -10272,22 +10495,22 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
     </row>
-    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
@@ -10305,22 +10528,22 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="33"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
@@ -10338,7 +10561,7 @@
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -10369,22 +10592,22 @@
       <c r="AB21" s="12"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
@@ -10402,22 +10625,22 @@
       <c r="AB22" s="14"/>
       <c r="AC22" s="14"/>
     </row>
-    <row r="23" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
@@ -10435,7 +10658,7 @@
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -10466,22 +10689,22 @@
       <c r="AB24" s="12"/>
       <c r="AC24" s="12"/>
     </row>
-    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="33"/>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
@@ -10499,22 +10722,22 @@
       <c r="AB25" s="14"/>
       <c r="AC25" s="14"/>
     </row>
-    <row r="26" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -10532,7 +10755,7 @@
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -10563,7 +10786,7 @@
       <c r="AB27" s="12"/>
       <c r="AC27" s="12"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -10594,22 +10817,22 @@
       <c r="AB28" s="12"/>
       <c r="AC28" s="12"/>
     </row>
-    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="33"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
@@ -10627,22 +10850,22 @@
       <c r="AB29" s="14"/>
       <c r="AC29" s="14"/>
     </row>
-    <row r="30" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -10660,20 +10883,20 @@
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="43"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -10691,22 +10914,22 @@
       <c r="AB31" s="12"/>
       <c r="AC31" s="12"/>
     </row>
-    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="39"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
@@ -10724,22 +10947,22 @@
       <c r="AB32" s="14"/>
       <c r="AC32" s="14"/>
     </row>
-    <row r="33" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
@@ -10757,20 +10980,20 @@
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="43"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="36"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -10788,22 +11011,22 @@
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
     </row>
-    <row r="35" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28" t="s">
+    <row r="35" spans="1:29" ht="37.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="33"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -10821,22 +11044,22 @@
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
     </row>
-    <row r="36" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:29" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="33"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
@@ -10854,7 +11077,7 @@
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -10885,22 +11108,22 @@
       <c r="AB37" s="12"/>
       <c r="AC37" s="12"/>
     </row>
-    <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="33"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
@@ -10918,37 +11141,37 @@
       <c r="AB38" s="10"/>
       <c r="AC38" s="10"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="43"/>
-    </row>
-    <row r="40" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="30"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="33"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -10966,37 +11189,37 @@
       <c r="AB40" s="23"/>
       <c r="AC40" s="23"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="43"/>
-    </row>
-    <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="34"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="33"/>
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
       <c r="P42" s="14"/>
@@ -11014,22 +11237,22 @@
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
     </row>
-    <row r="43" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="33"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
@@ -11047,22 +11270,22 @@
       <c r="AB43" s="23"/>
       <c r="AC43" s="23"/>
     </row>
-    <row r="44" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="30"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="33"/>
       <c r="N44" s="24"/>
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
@@ -11080,37 +11303,37 @@
       <c r="AB44" s="24"/>
       <c r="AC44" s="24"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="43"/>
-    </row>
-    <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
+    </row>
+    <row r="46" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20"/>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="33"/>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -11128,22 +11351,22 @@
       <c r="AB46" s="14"/>
       <c r="AC46" s="14"/>
     </row>
-    <row r="47" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="52"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="30"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
@@ -11161,9 +11384,39 @@
       <c r="AB47" s="23"/>
       <c r="AC47" s="23"/>
     </row>
-    <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:M13"/>
+    <mergeCell ref="A14:M14"/>
+    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:M25"/>
+    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="B29:M29"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B31:M31"/>
+    <mergeCell ref="B32:M32"/>
+    <mergeCell ref="B33:M33"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="A35:M35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="B46:M46"/>
     <mergeCell ref="B47:M47"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A39:M39"/>
@@ -11172,36 +11425,6 @@
     <mergeCell ref="B42:M42"/>
     <mergeCell ref="B43:M43"/>
     <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="A35:M35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="B46:M46"/>
-    <mergeCell ref="B29:M29"/>
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B31:M31"/>
-    <mergeCell ref="B32:M32"/>
-    <mergeCell ref="B33:M33"/>
-    <mergeCell ref="B20:M20"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:M25"/>
-    <mergeCell ref="B26:M26"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="B8:M8"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:M7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -11221,15 +11444,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
     <col min="4" max="5" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -11246,7 +11469,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -11263,7 +11486,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -11280,7 +11503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -11297,7 +11520,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -11314,7 +11537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -11331,7 +11554,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -11348,7 +11571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -11365,7 +11588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -11382,7 +11605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -11399,7 +11622,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -11416,7 +11639,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -11433,7 +11656,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -11450,7 +11673,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -11467,7 +11690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -11484,7 +11707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -11501,7 +11724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>38</v>
       </c>
@@ -11514,7 +11737,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -11531,7 +11754,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -11548,7 +11771,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -11565,7 +11788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -11582,7 +11805,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -11599,7 +11822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -11616,7 +11839,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
@@ -11633,7 +11856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>38</v>
       </c>
@@ -11650,7 +11873,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -11667,7 +11890,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -11684,7 +11907,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -11701,7 +11924,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
@@ -11718,7 +11941,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -11735,7 +11958,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
@@ -11759,81 +11982,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:CW25"/>
+  <dimension ref="A1:CW34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="10" width="22.7109375" customWidth="1"/>
+    <col min="8" max="10" width="22.6640625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
     <col min="17" max="17" width="12" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
     <col min="19" max="20" width="12" customWidth="1"/>
-    <col min="21" max="23" width="22.7109375" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
-    <col min="26" max="26" width="19.28515625" customWidth="1"/>
-    <col min="27" max="27" width="25.28515625" customWidth="1"/>
-    <col min="28" max="28" width="19.28515625" customWidth="1"/>
-    <col min="29" max="30" width="25.28515625" customWidth="1"/>
-    <col min="31" max="31" width="31.28515625" customWidth="1"/>
-    <col min="32" max="32" width="49.28515625" customWidth="1"/>
-    <col min="33" max="38" width="15.5703125" customWidth="1"/>
-    <col min="39" max="39" width="20.42578125" customWidth="1"/>
-    <col min="40" max="40" width="26.42578125" customWidth="1"/>
-    <col min="41" max="41" width="20.42578125" customWidth="1"/>
-    <col min="42" max="43" width="26.42578125" customWidth="1"/>
-    <col min="44" max="44" width="32.42578125" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" customWidth="1"/>
-    <col min="46" max="46" width="26.42578125" customWidth="1"/>
-    <col min="47" max="47" width="34.7109375" customWidth="1"/>
-    <col min="48" max="48" width="40.7109375" customWidth="1"/>
-    <col min="49" max="49" width="34.7109375" customWidth="1"/>
-    <col min="50" max="50" width="40.7109375" customWidth="1"/>
-    <col min="51" max="51" width="34.7109375" customWidth="1"/>
-    <col min="52" max="52" width="40.7109375" customWidth="1"/>
+    <col min="21" max="23" width="22.6640625" customWidth="1"/>
+    <col min="24" max="24" width="19.33203125" customWidth="1"/>
+    <col min="25" max="25" width="20.44140625" customWidth="1"/>
+    <col min="26" max="26" width="19.33203125" customWidth="1"/>
+    <col min="27" max="27" width="25.33203125" customWidth="1"/>
+    <col min="28" max="28" width="19.33203125" customWidth="1"/>
+    <col min="29" max="30" width="25.33203125" customWidth="1"/>
+    <col min="31" max="31" width="31.33203125" customWidth="1"/>
+    <col min="32" max="32" width="49.33203125" customWidth="1"/>
+    <col min="33" max="38" width="15.5546875" customWidth="1"/>
+    <col min="39" max="39" width="20.44140625" customWidth="1"/>
+    <col min="40" max="40" width="26.44140625" customWidth="1"/>
+    <col min="41" max="41" width="20.44140625" customWidth="1"/>
+    <col min="42" max="43" width="26.44140625" customWidth="1"/>
+    <col min="44" max="44" width="32.44140625" customWidth="1"/>
+    <col min="45" max="45" width="20.44140625" customWidth="1"/>
+    <col min="46" max="46" width="26.44140625" customWidth="1"/>
+    <col min="47" max="47" width="34.6640625" customWidth="1"/>
+    <col min="48" max="48" width="40.6640625" customWidth="1"/>
+    <col min="49" max="49" width="34.6640625" customWidth="1"/>
+    <col min="50" max="50" width="40.6640625" customWidth="1"/>
+    <col min="51" max="51" width="34.6640625" customWidth="1"/>
+    <col min="52" max="52" width="40.6640625" customWidth="1"/>
     <col min="53" max="53" width="12" customWidth="1"/>
-    <col min="54" max="55" width="19.28515625" customWidth="1"/>
+    <col min="54" max="55" width="19.33203125" customWidth="1"/>
     <col min="56" max="56" width="18" customWidth="1"/>
-    <col min="57" max="58" width="25.28515625" customWidth="1"/>
+    <col min="57" max="58" width="25.33203125" customWidth="1"/>
     <col min="59" max="60" width="30" customWidth="1"/>
-    <col min="61" max="62" width="26.42578125" customWidth="1"/>
-    <col min="63" max="63" width="58.7109375" customWidth="1"/>
-    <col min="64" max="64" width="40.7109375" customWidth="1"/>
-    <col min="65" max="65" width="49.28515625" customWidth="1"/>
-    <col min="66" max="71" width="25.28515625" customWidth="1"/>
-    <col min="72" max="74" width="26.42578125" customWidth="1"/>
-    <col min="75" max="75" width="58.7109375" customWidth="1"/>
-    <col min="76" max="76" width="40.7109375" customWidth="1"/>
-    <col min="77" max="77" width="49.28515625" customWidth="1"/>
-    <col min="78" max="83" width="25.28515625" customWidth="1"/>
-    <col min="84" max="86" width="26.42578125" customWidth="1"/>
-    <col min="87" max="91" width="13.28515625" customWidth="1"/>
-    <col min="92" max="92" width="19.28515625" customWidth="1"/>
-    <col min="93" max="93" width="25.28515625" customWidth="1"/>
-    <col min="94" max="95" width="21.5703125" customWidth="1"/>
-    <col min="96" max="96" width="27.5703125" customWidth="1"/>
-    <col min="97" max="97" width="13.28515625" customWidth="1"/>
-    <col min="98" max="98" width="19.28515625" customWidth="1"/>
-    <col min="99" max="100" width="15.5703125" customWidth="1"/>
-    <col min="101" max="101" width="19.28515625" customWidth="1"/>
+    <col min="61" max="62" width="26.44140625" customWidth="1"/>
+    <col min="63" max="63" width="58.6640625" customWidth="1"/>
+    <col min="64" max="64" width="40.6640625" customWidth="1"/>
+    <col min="65" max="65" width="49.33203125" customWidth="1"/>
+    <col min="66" max="71" width="25.33203125" customWidth="1"/>
+    <col min="72" max="74" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="58.6640625" customWidth="1"/>
+    <col min="76" max="76" width="40.6640625" customWidth="1"/>
+    <col min="77" max="77" width="49.33203125" customWidth="1"/>
+    <col min="78" max="83" width="25.33203125" customWidth="1"/>
+    <col min="84" max="86" width="26.44140625" customWidth="1"/>
+    <col min="87" max="91" width="13.33203125" customWidth="1"/>
+    <col min="92" max="92" width="19.33203125" customWidth="1"/>
+    <col min="93" max="93" width="25.33203125" customWidth="1"/>
+    <col min="94" max="95" width="21.5546875" customWidth="1"/>
+    <col min="96" max="96" width="27.5546875" customWidth="1"/>
+    <col min="97" max="97" width="13.33203125" customWidth="1"/>
+    <col min="98" max="98" width="19.33203125" customWidth="1"/>
+    <col min="99" max="100" width="15.5546875" customWidth="1"/>
+    <col min="101" max="101" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>126</v>
       </c>
@@ -11841,7 +12064,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>128</v>
       </c>
@@ -11854,19 +12077,19 @@
       <c r="E2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-    </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>130</v>
       </c>
@@ -11879,38 +12102,38 @@
       <c r="E3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-    </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>132</v>
       </c>
@@ -11923,19 +12146,19 @@
       <c r="E5" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-    </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+    </row>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>136</v>
       </c>
@@ -12240,7 +12463,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>139</v>
       </c>
@@ -12401,7 +12624,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:101" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -12706,7 +12929,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:101" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>272</v>
       </c>
@@ -13011,7 +13234,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -13028,7 +13251,10 @@
         <v>895</v>
       </c>
       <c r="H10" t="s">
-        <v>949</v>
+        <v>997</v>
+      </c>
+      <c r="I10" t="s">
+        <v>981</v>
       </c>
       <c r="J10" t="s">
         <v>579</v>
@@ -13036,15 +13262,6 @@
       <c r="K10" t="s">
         <v>478</v>
       </c>
-      <c r="L10" t="s">
-        <v>947</v>
-      </c>
-      <c r="N10">
-        <v>45</v>
-      </c>
-      <c r="O10" t="s">
-        <v>377</v>
-      </c>
       <c r="P10" t="s">
         <v>378</v>
       </c>
@@ -13069,6 +13286,24 @@
       <c r="X10" t="s">
         <v>507</v>
       </c>
+      <c r="Z10">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB10">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD10">
+        <v>0.3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>386</v>
+      </c>
       <c r="AF10" s="27" t="s">
         <v>896</v>
       </c>
@@ -13081,8 +13316,71 @@
       <c r="AI10" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>12</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO10">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ10">
+        <v>0.5</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS10">
+        <v>40</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU10">
+        <v>21</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>952</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>970</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN10">
+        <v>35</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -13098,21 +13396,18 @@
       <c r="G11" t="s">
         <v>895</v>
       </c>
+      <c r="H11" t="s">
+        <v>998</v>
+      </c>
+      <c r="I11" t="s">
+        <v>982</v>
+      </c>
       <c r="J11" t="s">
         <v>579</v>
       </c>
       <c r="K11" t="s">
         <v>478</v>
       </c>
-      <c r="L11" t="s">
-        <v>947</v>
-      </c>
-      <c r="N11">
-        <v>45</v>
-      </c>
-      <c r="O11" t="s">
-        <v>377</v>
-      </c>
       <c r="P11" t="s">
         <v>378</v>
       </c>
@@ -13137,6 +13432,24 @@
       <c r="X11" t="s">
         <v>507</v>
       </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB11">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD11">
+        <v>0.3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>386</v>
+      </c>
       <c r="AF11" t="s">
         <v>900</v>
       </c>
@@ -13146,8 +13459,71 @@
       <c r="AH11" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>12</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO11">
+        <v>15</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ11">
+        <v>0.5</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS11">
+        <v>40</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU11">
+        <v>21</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>956</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>971</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN11">
+        <v>35</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -13163,21 +13539,18 @@
       <c r="G12" t="s">
         <v>895</v>
       </c>
+      <c r="H12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>983</v>
+      </c>
       <c r="J12" t="s">
         <v>579</v>
       </c>
       <c r="K12" t="s">
         <v>478</v>
       </c>
-      <c r="L12" t="s">
-        <v>947</v>
-      </c>
-      <c r="N12">
-        <v>45</v>
-      </c>
-      <c r="O12" t="s">
-        <v>377</v>
-      </c>
       <c r="P12" t="s">
         <v>378</v>
       </c>
@@ -13202,6 +13575,24 @@
       <c r="X12" t="s">
         <v>507</v>
       </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB12">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD12">
+        <v>0.3</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>386</v>
+      </c>
       <c r="AF12" t="s">
         <v>903</v>
       </c>
@@ -13214,8 +13605,71 @@
       <c r="AI12" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM12">
+        <v>12</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO12">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ12">
+        <v>0.5</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS12">
+        <v>40</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU12">
+        <v>21</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>957</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>972</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN12">
+        <v>35</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -13231,21 +13685,18 @@
       <c r="G13" t="s">
         <v>895</v>
       </c>
+      <c r="H13" t="s">
+        <v>999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>984</v>
+      </c>
       <c r="J13" t="s">
         <v>579</v>
       </c>
       <c r="K13" t="s">
         <v>478</v>
       </c>
-      <c r="L13" t="s">
-        <v>947</v>
-      </c>
-      <c r="N13">
-        <v>45</v>
-      </c>
-      <c r="O13" t="s">
-        <v>377</v>
-      </c>
       <c r="P13" t="s">
         <v>378</v>
       </c>
@@ -13270,6 +13721,24 @@
       <c r="X13" t="s">
         <v>507</v>
       </c>
+      <c r="Z13">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB13">
+        <v>7.9</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD13">
+        <v>0.3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>386</v>
+      </c>
       <c r="AF13" t="s">
         <v>907</v>
       </c>
@@ -13279,8 +13748,71 @@
       <c r="AH13" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM13">
+        <v>12</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO13">
+        <v>15</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ13">
+        <v>0.5</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS13">
+        <v>40</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU13">
+        <v>21</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>958</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>973</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN13">
+        <v>35</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -13296,21 +13828,18 @@
       <c r="G14" t="s">
         <v>895</v>
       </c>
+      <c r="H14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>985</v>
+      </c>
       <c r="J14" t="s">
         <v>579</v>
       </c>
       <c r="K14" t="s">
         <v>478</v>
       </c>
-      <c r="L14" t="s">
-        <v>947</v>
-      </c>
-      <c r="N14">
-        <v>45</v>
-      </c>
-      <c r="O14" t="s">
-        <v>377</v>
-      </c>
       <c r="P14" t="s">
         <v>378</v>
       </c>
@@ -13335,6 +13864,24 @@
       <c r="X14" t="s">
         <v>507</v>
       </c>
+      <c r="Z14">
+        <v>7</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB14">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD14">
+        <v>0.3</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>386</v>
+      </c>
       <c r="AF14" t="s">
         <v>910</v>
       </c>
@@ -13344,8 +13891,71 @@
       <c r="AH14" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM14">
+        <v>12</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO14">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ14">
+        <v>0.5</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS14">
+        <v>40</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU14">
+        <v>21</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>953</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>974</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN14">
+        <v>35</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -13361,21 +13971,18 @@
       <c r="G15" t="s">
         <v>895</v>
       </c>
+      <c r="H15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>993</v>
+      </c>
       <c r="J15" t="s">
         <v>579</v>
       </c>
       <c r="K15" t="s">
         <v>478</v>
       </c>
-      <c r="L15" t="s">
-        <v>947</v>
-      </c>
-      <c r="N15">
-        <v>45</v>
-      </c>
-      <c r="O15" t="s">
-        <v>377</v>
-      </c>
       <c r="P15" t="s">
         <v>378</v>
       </c>
@@ -13400,6 +14007,24 @@
       <c r="X15" t="s">
         <v>507</v>
       </c>
+      <c r="Z15">
+        <v>7</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB15">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD15">
+        <v>0.3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>386</v>
+      </c>
       <c r="AF15" t="s">
         <v>913</v>
       </c>
@@ -13412,8 +14037,71 @@
       <c r="AI15" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="AM15">
+        <v>12</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO15">
+        <v>15</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ15">
+        <v>0.5</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS15">
+        <v>40</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU15">
+        <v>21</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>954</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>975</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN15">
+        <v>35</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -13429,21 +14117,18 @@
       <c r="G16" t="s">
         <v>895</v>
       </c>
+      <c r="H16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I16" t="s">
+        <v>994</v>
+      </c>
       <c r="J16" t="s">
         <v>579</v>
       </c>
       <c r="K16" t="s">
         <v>478</v>
       </c>
-      <c r="L16" t="s">
-        <v>947</v>
-      </c>
-      <c r="N16">
-        <v>45</v>
-      </c>
-      <c r="O16" t="s">
-        <v>377</v>
-      </c>
       <c r="P16" t="s">
         <v>378</v>
       </c>
@@ -13468,6 +14153,24 @@
       <c r="X16" t="s">
         <v>507</v>
       </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB16">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD16">
+        <v>0.3</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>386</v>
+      </c>
       <c r="AF16" t="s">
         <v>917</v>
       </c>
@@ -13477,8 +14180,71 @@
       <c r="AH16" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM16">
+        <v>12</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO16">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ16">
+        <v>0.5</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS16">
+        <v>40</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU16">
+        <v>21</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>959</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>976</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN16">
+        <v>35</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -13494,21 +14260,18 @@
       <c r="G17" t="s">
         <v>895</v>
       </c>
+      <c r="H17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I17" t="s">
+        <v>986</v>
+      </c>
       <c r="J17" t="s">
         <v>579</v>
       </c>
       <c r="K17" t="s">
         <v>478</v>
       </c>
-      <c r="L17" t="s">
-        <v>947</v>
-      </c>
-      <c r="N17">
-        <v>45</v>
-      </c>
-      <c r="O17" t="s">
-        <v>377</v>
-      </c>
       <c r="P17" t="s">
         <v>378</v>
       </c>
@@ -13533,6 +14296,24 @@
       <c r="X17" t="s">
         <v>507</v>
       </c>
+      <c r="Z17">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB17">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD17">
+        <v>0.3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>386</v>
+      </c>
       <c r="AF17" t="s">
         <v>920</v>
       </c>
@@ -13542,8 +14323,71 @@
       <c r="AH17" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM17">
+        <v>12</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO17">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ17">
+        <v>0.5</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS17">
+        <v>40</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU17">
+        <v>21</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>967</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>977</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN17">
+        <v>35</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -13559,21 +14403,18 @@
       <c r="G18" t="s">
         <v>895</v>
       </c>
+      <c r="H18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I18" t="s">
+        <v>995</v>
+      </c>
       <c r="J18" t="s">
         <v>579</v>
       </c>
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="L18" t="s">
-        <v>947</v>
-      </c>
-      <c r="N18">
-        <v>45</v>
-      </c>
-      <c r="O18" t="s">
-        <v>377</v>
-      </c>
       <c r="P18" t="s">
         <v>378</v>
       </c>
@@ -13598,6 +14439,24 @@
       <c r="X18" t="s">
         <v>507</v>
       </c>
+      <c r="Z18">
+        <v>7</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB18">
+        <v>11</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD18">
+        <v>0.3</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>386</v>
+      </c>
       <c r="AF18" t="s">
         <v>923</v>
       </c>
@@ -13607,8 +14466,71 @@
       <c r="AH18" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM18">
+        <v>12</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO18">
+        <v>15</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ18">
+        <v>0.5</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS18">
+        <v>40</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU18">
+        <v>21</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>968</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>978</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN18">
+        <v>35</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -13624,21 +14546,18 @@
       <c r="G19" t="s">
         <v>895</v>
       </c>
+      <c r="H19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I19" t="s">
+        <v>987</v>
+      </c>
       <c r="J19" t="s">
         <v>579</v>
       </c>
       <c r="K19" t="s">
         <v>478</v>
       </c>
-      <c r="L19" t="s">
-        <v>947</v>
-      </c>
-      <c r="N19">
-        <v>45</v>
-      </c>
-      <c r="O19" t="s">
-        <v>377</v>
-      </c>
       <c r="P19" t="s">
         <v>378</v>
       </c>
@@ -13663,6 +14582,24 @@
       <c r="X19" t="s">
         <v>507</v>
       </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB19">
+        <v>11</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD19">
+        <v>0.3</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>386</v>
+      </c>
       <c r="AF19" t="s">
         <v>926</v>
       </c>
@@ -13672,8 +14609,71 @@
       <c r="AH19" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM19">
+        <v>12</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO19">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS19">
+        <v>40</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU19">
+        <v>21</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>955</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>979</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN19">
+        <v>35</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -13689,21 +14689,18 @@
       <c r="G20" t="s">
         <v>895</v>
       </c>
+      <c r="H20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I20" t="s">
+        <v>988</v>
+      </c>
       <c r="J20" t="s">
         <v>579</v>
       </c>
       <c r="K20" t="s">
         <v>478</v>
       </c>
-      <c r="L20" t="s">
-        <v>947</v>
-      </c>
-      <c r="N20">
-        <v>45</v>
-      </c>
-      <c r="O20" t="s">
-        <v>377</v>
-      </c>
       <c r="P20" t="s">
         <v>378</v>
       </c>
@@ -13728,6 +14725,24 @@
       <c r="X20" t="s">
         <v>507</v>
       </c>
+      <c r="Z20">
+        <v>7</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB20">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD20">
+        <v>0.3</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>386</v>
+      </c>
       <c r="AF20" t="s">
         <v>929</v>
       </c>
@@ -13737,8 +14752,71 @@
       <c r="AH20" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM20">
+        <v>12</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO20">
+        <v>15</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS20">
+        <v>40</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU20">
+        <v>21</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>969</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>980</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>960</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN20">
+        <v>35</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -13754,15 +14832,18 @@
       <c r="G21" t="s">
         <v>895</v>
       </c>
+      <c r="H21" t="s">
+        <v>948</v>
+      </c>
+      <c r="I21" t="s">
+        <v>989</v>
+      </c>
       <c r="J21" t="s">
         <v>579</v>
       </c>
       <c r="K21" t="s">
         <v>478</v>
       </c>
-      <c r="L21" t="s">
-        <v>948</v>
-      </c>
       <c r="P21" t="s">
         <v>378</v>
       </c>
@@ -13787,6 +14868,24 @@
       <c r="X21" t="s">
         <v>526</v>
       </c>
+      <c r="Z21">
+        <v>7</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB21">
+        <v>11</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD21">
+        <v>0.3</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>386</v>
+      </c>
       <c r="AF21" t="s">
         <v>932</v>
       </c>
@@ -13796,8 +14895,71 @@
       <c r="AH21" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM21">
+        <v>12</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO21">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS21">
+        <v>40</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU21">
+        <v>21</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>959</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>976</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>961</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN21">
+        <v>35</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -13813,15 +14975,18 @@
       <c r="G22" t="s">
         <v>895</v>
       </c>
+      <c r="H22" t="s">
+        <v>947</v>
+      </c>
+      <c r="I22" t="s">
+        <v>990</v>
+      </c>
       <c r="J22" t="s">
         <v>579</v>
       </c>
       <c r="K22" t="s">
         <v>478</v>
       </c>
-      <c r="L22" t="s">
-        <v>948</v>
-      </c>
       <c r="P22" t="s">
         <v>378</v>
       </c>
@@ -13846,6 +15011,24 @@
       <c r="X22" t="s">
         <v>526</v>
       </c>
+      <c r="Z22">
+        <v>7</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB22">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD22">
+        <v>0.3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>386</v>
+      </c>
       <c r="AF22" t="s">
         <v>935</v>
       </c>
@@ -13855,8 +15038,71 @@
       <c r="AH22" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM22">
+        <v>12</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO22">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS22">
+        <v>40</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU22">
+        <v>21</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>967</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>977</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>961</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN22">
+        <v>35</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -13872,15 +15118,18 @@
       <c r="G23" t="s">
         <v>895</v>
       </c>
+      <c r="H23" t="s">
+        <v>949</v>
+      </c>
+      <c r="I23" t="s">
+        <v>996</v>
+      </c>
       <c r="J23" t="s">
         <v>579</v>
       </c>
       <c r="K23" t="s">
         <v>478</v>
       </c>
-      <c r="L23" t="s">
-        <v>948</v>
-      </c>
       <c r="P23" t="s">
         <v>378</v>
       </c>
@@ -13905,6 +15154,24 @@
       <c r="X23" t="s">
         <v>526</v>
       </c>
+      <c r="Z23">
+        <v>7</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB23">
+        <v>11</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD23">
+        <v>0.3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>386</v>
+      </c>
       <c r="AF23" t="s">
         <v>938</v>
       </c>
@@ -13914,8 +15181,71 @@
       <c r="AH23" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM23">
+        <v>12</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO23">
+        <v>15</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS23">
+        <v>40</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU23">
+        <v>21</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>968</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>978</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>961</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN23">
+        <v>35</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -13931,15 +15261,18 @@
       <c r="G24" t="s">
         <v>895</v>
       </c>
+      <c r="H24" t="s">
+        <v>950</v>
+      </c>
+      <c r="I24" t="s">
+        <v>991</v>
+      </c>
       <c r="J24" t="s">
         <v>579</v>
       </c>
       <c r="K24" t="s">
         <v>478</v>
       </c>
-      <c r="L24" t="s">
-        <v>948</v>
-      </c>
       <c r="P24" t="s">
         <v>378</v>
       </c>
@@ -13964,6 +15297,24 @@
       <c r="X24" t="s">
         <v>526</v>
       </c>
+      <c r="Z24">
+        <v>7</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB24">
+        <v>11</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD24">
+        <v>0.3</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>386</v>
+      </c>
       <c r="AF24" t="s">
         <v>941</v>
       </c>
@@ -13973,8 +15324,71 @@
       <c r="AH24" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AM24">
+        <v>12</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO24">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS24">
+        <v>40</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU24">
+        <v>21</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>955</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>979</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>961</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN24">
+        <v>35</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -13990,15 +15404,18 @@
       <c r="G25" t="s">
         <v>895</v>
       </c>
+      <c r="H25" t="s">
+        <v>951</v>
+      </c>
+      <c r="I25" t="s">
+        <v>992</v>
+      </c>
       <c r="J25" t="s">
         <v>579</v>
       </c>
       <c r="K25" t="s">
         <v>478</v>
       </c>
-      <c r="L25" t="s">
-        <v>948</v>
-      </c>
       <c r="P25" t="s">
         <v>378</v>
       </c>
@@ -14023,6 +15440,24 @@
       <c r="X25" t="s">
         <v>526</v>
       </c>
+      <c r="Z25">
+        <v>7</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB25">
+        <v>11</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>386</v>
+      </c>
+      <c r="AD25">
+        <v>0.3</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>386</v>
+      </c>
       <c r="AF25" t="s">
         <v>944</v>
       </c>
@@ -14032,6 +15467,78 @@
       <c r="AH25" t="s">
         <v>946</v>
       </c>
+      <c r="AM25">
+        <v>12</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>386</v>
+      </c>
+      <c r="AO25">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS25">
+        <v>40</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>387</v>
+      </c>
+      <c r="AU25">
+        <v>21</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>388</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>969</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>980</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>961</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>962</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>963</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>964</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>965</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>966</v>
+      </c>
+      <c r="CN25">
+        <v>35</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>164</v>
+      </c>
+      <c r="CP25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:94" x14ac:dyDescent="0.3">
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14042,1113 +15549,1124 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="A10:A9999">
-    <cfRule type="expression" dxfId="302" priority="1">
+    <cfRule type="expression" dxfId="305" priority="4">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="2">
+    <cfRule type="expression" dxfId="304" priority="5">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="3">
+    <cfRule type="expression" dxfId="303" priority="6">
       <formula>IF(VLOOKUP($A$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B9999">
-    <cfRule type="expression" dxfId="299" priority="4">
+    <cfRule type="expression" dxfId="302" priority="7">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="5">
+    <cfRule type="expression" dxfId="301" priority="8">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="6">
+    <cfRule type="expression" dxfId="300" priority="9">
       <formula>IF(VLOOKUP($B$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C9999">
-    <cfRule type="expression" dxfId="296" priority="7">
+    <cfRule type="expression" dxfId="299" priority="10">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="8">
+    <cfRule type="expression" dxfId="298" priority="11">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="9">
+    <cfRule type="expression" dxfId="297" priority="12">
       <formula>IF(VLOOKUP($C$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D9999">
-    <cfRule type="expression" dxfId="293" priority="10">
+    <cfRule type="expression" dxfId="296" priority="13">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="11">
+    <cfRule type="expression" dxfId="295" priority="14">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="12">
+    <cfRule type="expression" dxfId="294" priority="15">
       <formula>IF(VLOOKUP($D$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E9999">
-    <cfRule type="expression" dxfId="290" priority="13">
+    <cfRule type="expression" dxfId="293" priority="16">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="14">
+    <cfRule type="expression" dxfId="292" priority="17">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="15">
+    <cfRule type="expression" dxfId="291" priority="18">
       <formula>IF(VLOOKUP($E$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F9999">
-    <cfRule type="expression" dxfId="287" priority="16">
+    <cfRule type="expression" dxfId="290" priority="19">
       <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="17">
+    <cfRule type="expression" dxfId="289" priority="21">
+      <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="288" priority="20">
       <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="285" priority="18">
-      <formula>IF(VLOOKUP($F$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G9999">
-    <cfRule type="expression" dxfId="284" priority="19">
+    <cfRule type="expression" dxfId="287" priority="22">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="20">
+    <cfRule type="expression" dxfId="286" priority="23">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="21">
+    <cfRule type="expression" dxfId="285" priority="24">
       <formula>IF(VLOOKUP($G$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H9999">
-    <cfRule type="expression" dxfId="281" priority="22">
+    <cfRule type="expression" dxfId="284" priority="25">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="23">
+    <cfRule type="expression" dxfId="283" priority="26">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="24">
+    <cfRule type="expression" dxfId="282" priority="27">
       <formula>IF(VLOOKUP($H$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I9999">
-    <cfRule type="expression" dxfId="278" priority="25">
+  <conditionalFormatting sqref="I10:I29 I35:I9999">
+    <cfRule type="expression" dxfId="281" priority="28">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="26">
+    <cfRule type="expression" dxfId="280" priority="29">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="27">
+    <cfRule type="expression" dxfId="279" priority="30">
       <formula>IF(VLOOKUP($I$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I34">
+    <cfRule type="expression" dxfId="278" priority="2">
+      <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C30," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="277" priority="3">
+      <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C30," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="276" priority="1">
+      <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C30," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J10:J9999">
-    <cfRule type="expression" dxfId="275" priority="28">
+    <cfRule type="expression" dxfId="275" priority="31">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="29">
+    <cfRule type="expression" dxfId="274" priority="32">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="30">
+    <cfRule type="expression" dxfId="273" priority="33">
       <formula>IF(VLOOKUP($J$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K9999">
-    <cfRule type="expression" dxfId="272" priority="31">
+    <cfRule type="expression" dxfId="272" priority="34">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="32">
+    <cfRule type="expression" dxfId="271" priority="35">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="33">
+    <cfRule type="expression" dxfId="270" priority="36">
       <formula>IF(VLOOKUP($K$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L9999">
-    <cfRule type="expression" dxfId="269" priority="34">
+    <cfRule type="expression" dxfId="269" priority="37">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="35">
+    <cfRule type="expression" dxfId="268" priority="38">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="36">
+    <cfRule type="expression" dxfId="267" priority="39">
       <formula>IF(VLOOKUP($L$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M9999">
-    <cfRule type="expression" dxfId="266" priority="37">
+    <cfRule type="expression" dxfId="266" priority="40">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="38">
+    <cfRule type="expression" dxfId="265" priority="41">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="39">
+    <cfRule type="expression" dxfId="264" priority="42">
       <formula>IF(VLOOKUP($M$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10:N9999">
-    <cfRule type="expression" dxfId="263" priority="40">
+    <cfRule type="expression" dxfId="263" priority="43">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="41">
+    <cfRule type="expression" dxfId="262" priority="44">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="42">
+    <cfRule type="expression" dxfId="261" priority="45">
       <formula>IF(VLOOKUP($N$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:O9999">
-    <cfRule type="expression" dxfId="260" priority="43">
+    <cfRule type="expression" dxfId="260" priority="46">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="44">
+    <cfRule type="expression" dxfId="259" priority="47">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="45">
+    <cfRule type="expression" dxfId="258" priority="48">
       <formula>IF(VLOOKUP($O$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:P9999">
-    <cfRule type="expression" dxfId="257" priority="46">
+    <cfRule type="expression" dxfId="257" priority="49">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="47">
+    <cfRule type="expression" dxfId="256" priority="50">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="48">
+    <cfRule type="expression" dxfId="255" priority="51">
       <formula>IF(VLOOKUP($P$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10:Q9999">
-    <cfRule type="expression" dxfId="254" priority="49">
+    <cfRule type="expression" dxfId="254" priority="52">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="50">
+    <cfRule type="expression" dxfId="253" priority="53">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="51">
+    <cfRule type="expression" dxfId="252" priority="54">
       <formula>IF(VLOOKUP($Q$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:R9999">
-    <cfRule type="expression" dxfId="251" priority="52">
+    <cfRule type="expression" dxfId="251" priority="55">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="53">
+    <cfRule type="expression" dxfId="250" priority="56">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="54">
+    <cfRule type="expression" dxfId="249" priority="57">
       <formula>IF(VLOOKUP($R$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S9999">
-    <cfRule type="expression" dxfId="248" priority="55">
+    <cfRule type="expression" dxfId="248" priority="58">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="56">
+    <cfRule type="expression" dxfId="247" priority="59">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="57">
+    <cfRule type="expression" dxfId="246" priority="60">
       <formula>IF(VLOOKUP($S$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10:T9999">
-    <cfRule type="expression" dxfId="245" priority="58">
+    <cfRule type="expression" dxfId="245" priority="61">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="59">
+    <cfRule type="expression" dxfId="244" priority="62">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="60">
+    <cfRule type="expression" dxfId="243" priority="63">
       <formula>IF(VLOOKUP($T$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:U9999">
-    <cfRule type="expression" dxfId="242" priority="61">
+    <cfRule type="expression" dxfId="242" priority="64">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="62">
+    <cfRule type="expression" dxfId="241" priority="65">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="63">
+    <cfRule type="expression" dxfId="240" priority="66">
       <formula>IF(VLOOKUP($U$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10:V9999">
-    <cfRule type="expression" dxfId="239" priority="64">
+    <cfRule type="expression" dxfId="239" priority="67">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="65">
+    <cfRule type="expression" dxfId="238" priority="68">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="66">
+    <cfRule type="expression" dxfId="237" priority="69">
       <formula>IF(VLOOKUP($V$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10:W9999">
-    <cfRule type="expression" dxfId="236" priority="67">
+    <cfRule type="expression" dxfId="236" priority="70">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="68">
+    <cfRule type="expression" dxfId="235" priority="71">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="69">
+    <cfRule type="expression" dxfId="234" priority="72">
       <formula>IF(VLOOKUP($W$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10:X9999">
-    <cfRule type="expression" dxfId="233" priority="70">
+    <cfRule type="expression" dxfId="233" priority="73">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="71">
+    <cfRule type="expression" dxfId="232" priority="74">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="72">
+    <cfRule type="expression" dxfId="231" priority="75">
       <formula>IF(VLOOKUP($X$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10:Y9999">
-    <cfRule type="expression" dxfId="230" priority="73">
+    <cfRule type="expression" dxfId="230" priority="76">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="74">
+    <cfRule type="expression" dxfId="229" priority="77">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="75">
+    <cfRule type="expression" dxfId="228" priority="78">
       <formula>IF(VLOOKUP($Y$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10:Z9999">
-    <cfRule type="expression" dxfId="227" priority="76">
+    <cfRule type="expression" dxfId="227" priority="79">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="77">
+    <cfRule type="expression" dxfId="226" priority="80">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="78">
+    <cfRule type="expression" dxfId="225" priority="81">
       <formula>IF(VLOOKUP($Z$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA10:AA9999">
-    <cfRule type="expression" dxfId="224" priority="79">
+    <cfRule type="expression" dxfId="224" priority="82">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="80">
+    <cfRule type="expression" dxfId="223" priority="83">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="81">
+    <cfRule type="expression" dxfId="222" priority="84">
       <formula>IF(VLOOKUP($AA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AB9999">
-    <cfRule type="expression" dxfId="221" priority="82">
+    <cfRule type="expression" dxfId="221" priority="85">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="83">
+    <cfRule type="expression" dxfId="220" priority="86">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="84">
+    <cfRule type="expression" dxfId="219" priority="87">
       <formula>IF(VLOOKUP($AB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC9999">
-    <cfRule type="expression" dxfId="218" priority="85">
+    <cfRule type="expression" dxfId="218" priority="88">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="86">
+    <cfRule type="expression" dxfId="217" priority="89">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="87">
+    <cfRule type="expression" dxfId="216" priority="90">
       <formula>IF(VLOOKUP($AC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD10:AD9999">
-    <cfRule type="expression" dxfId="215" priority="88">
+    <cfRule type="expression" dxfId="215" priority="91">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="89">
+    <cfRule type="expression" dxfId="214" priority="92">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="90">
+    <cfRule type="expression" dxfId="213" priority="93">
       <formula>IF(VLOOKUP($AD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:AE9999">
-    <cfRule type="expression" dxfId="212" priority="91">
+    <cfRule type="expression" dxfId="212" priority="94">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="92">
+    <cfRule type="expression" dxfId="211" priority="95">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="93">
+    <cfRule type="expression" dxfId="210" priority="96">
       <formula>IF(VLOOKUP($AE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AF9999">
-    <cfRule type="expression" dxfId="209" priority="94">
+    <cfRule type="expression" dxfId="209" priority="97">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="95">
+    <cfRule type="expression" dxfId="208" priority="98">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="96">
+    <cfRule type="expression" dxfId="207" priority="99">
       <formula>IF(VLOOKUP($AF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AG9999">
-    <cfRule type="expression" dxfId="206" priority="97">
+    <cfRule type="expression" dxfId="206" priority="100">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="98">
+    <cfRule type="expression" dxfId="205" priority="101">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="99">
+    <cfRule type="expression" dxfId="204" priority="102">
       <formula>IF(VLOOKUP($AG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH10:AH9999">
-    <cfRule type="expression" dxfId="203" priority="100">
+    <cfRule type="expression" dxfId="203" priority="103">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="101">
+    <cfRule type="expression" dxfId="202" priority="104">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="102">
+    <cfRule type="expression" dxfId="201" priority="105">
       <formula>IF(VLOOKUP($AH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10:AI9999">
-    <cfRule type="expression" dxfId="200" priority="103">
+    <cfRule type="expression" dxfId="200" priority="106">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="104">
+    <cfRule type="expression" dxfId="199" priority="107">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="105">
+    <cfRule type="expression" dxfId="198" priority="108">
       <formula>IF(VLOOKUP($AI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ10:AJ9999">
-    <cfRule type="expression" dxfId="197" priority="106">
+    <cfRule type="expression" dxfId="197" priority="109">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="107">
+    <cfRule type="expression" dxfId="196" priority="110">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="108">
+    <cfRule type="expression" dxfId="195" priority="111">
       <formula>IF(VLOOKUP($AJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK10:AK9999">
-    <cfRule type="expression" dxfId="194" priority="109">
+    <cfRule type="expression" dxfId="194" priority="112">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="110">
+    <cfRule type="expression" dxfId="193" priority="113">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="111">
+    <cfRule type="expression" dxfId="192" priority="114">
       <formula>IF(VLOOKUP($AK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL10:AL9999">
-    <cfRule type="expression" dxfId="191" priority="112">
+    <cfRule type="expression" dxfId="191" priority="115">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="113">
+    <cfRule type="expression" dxfId="190" priority="116">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="114">
+    <cfRule type="expression" dxfId="189" priority="117">
       <formula>IF(VLOOKUP($AL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10:AM9999">
-    <cfRule type="expression" dxfId="188" priority="115">
+    <cfRule type="expression" dxfId="188" priority="118">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="116">
+    <cfRule type="expression" dxfId="187" priority="119">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="117">
+    <cfRule type="expression" dxfId="186" priority="120">
       <formula>IF(VLOOKUP($AM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN10:AN9999">
-    <cfRule type="expression" dxfId="185" priority="118">
+    <cfRule type="expression" dxfId="185" priority="121">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="119">
+    <cfRule type="expression" dxfId="184" priority="122">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="120">
+    <cfRule type="expression" dxfId="183" priority="123">
       <formula>IF(VLOOKUP($AN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO10:AO9999">
-    <cfRule type="expression" dxfId="182" priority="121">
+    <cfRule type="expression" dxfId="182" priority="124">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="122">
+    <cfRule type="expression" dxfId="181" priority="125">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="123">
+    <cfRule type="expression" dxfId="180" priority="126">
       <formula>IF(VLOOKUP($AO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP10:AP9999">
-    <cfRule type="expression" dxfId="179" priority="124">
+    <cfRule type="expression" dxfId="179" priority="127">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="125">
+    <cfRule type="expression" dxfId="178" priority="128">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="126">
+    <cfRule type="expression" dxfId="177" priority="129">
       <formula>IF(VLOOKUP($AP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ10:AQ9999">
-    <cfRule type="expression" dxfId="176" priority="127">
+    <cfRule type="expression" dxfId="176" priority="130">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="128">
+    <cfRule type="expression" dxfId="175" priority="131">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="129">
+    <cfRule type="expression" dxfId="174" priority="132">
       <formula>IF(VLOOKUP($AQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR10:AR9999">
-    <cfRule type="expression" dxfId="173" priority="130">
+    <cfRule type="expression" dxfId="173" priority="133">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="131">
+    <cfRule type="expression" dxfId="172" priority="134">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="132">
+    <cfRule type="expression" dxfId="171" priority="135">
       <formula>IF(VLOOKUP($AR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS10:AS9999">
-    <cfRule type="expression" dxfId="170" priority="133">
+    <cfRule type="expression" dxfId="170" priority="136">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="134">
+    <cfRule type="expression" dxfId="169" priority="137">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="135">
+    <cfRule type="expression" dxfId="168" priority="138">
       <formula>IF(VLOOKUP($AS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT10:AT9999">
-    <cfRule type="expression" dxfId="167" priority="136">
+    <cfRule type="expression" dxfId="167" priority="139">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="137">
+    <cfRule type="expression" dxfId="166" priority="140">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="138">
+    <cfRule type="expression" dxfId="165" priority="141">
       <formula>IF(VLOOKUP($AT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU10:AU9999">
-    <cfRule type="expression" dxfId="164" priority="139">
+    <cfRule type="expression" dxfId="164" priority="142">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="140">
+    <cfRule type="expression" dxfId="163" priority="143">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="141">
+    <cfRule type="expression" dxfId="162" priority="144">
       <formula>IF(VLOOKUP($AU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV10:AV9999">
-    <cfRule type="expression" dxfId="161" priority="142">
+    <cfRule type="expression" dxfId="161" priority="145">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="143">
+    <cfRule type="expression" dxfId="160" priority="146">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="144">
+    <cfRule type="expression" dxfId="159" priority="147">
       <formula>IF(VLOOKUP($AV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW10:AW9999">
-    <cfRule type="expression" dxfId="158" priority="145">
+    <cfRule type="expression" dxfId="158" priority="148">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="146">
+    <cfRule type="expression" dxfId="157" priority="149">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="147">
+    <cfRule type="expression" dxfId="156" priority="150">
       <formula>IF(VLOOKUP($AW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX10:AX9999">
-    <cfRule type="expression" dxfId="155" priority="148">
+    <cfRule type="expression" dxfId="155" priority="151">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="149">
+    <cfRule type="expression" dxfId="154" priority="152">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="150">
+    <cfRule type="expression" dxfId="153" priority="153">
       <formula>IF(VLOOKUP($AX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY10:AY9999">
-    <cfRule type="expression" dxfId="152" priority="151">
+    <cfRule type="expression" dxfId="152" priority="154">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="152">
+    <cfRule type="expression" dxfId="151" priority="155">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="153">
+    <cfRule type="expression" dxfId="150" priority="156">
       <formula>IF(VLOOKUP($AY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ10:AZ9999">
-    <cfRule type="expression" dxfId="149" priority="154">
+    <cfRule type="expression" dxfId="149" priority="157">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="155">
+    <cfRule type="expression" dxfId="148" priority="158">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="156">
+    <cfRule type="expression" dxfId="147" priority="159">
       <formula>IF(VLOOKUP($AZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA10:BA9999">
-    <cfRule type="expression" dxfId="146" priority="157">
+    <cfRule type="expression" dxfId="146" priority="160">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="158">
+    <cfRule type="expression" dxfId="145" priority="161">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="159">
+    <cfRule type="expression" dxfId="144" priority="162">
       <formula>IF(VLOOKUP($BA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB10:BB9999">
-    <cfRule type="expression" dxfId="143" priority="160">
+    <cfRule type="expression" dxfId="143" priority="163">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="161">
+    <cfRule type="expression" dxfId="142" priority="164">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="162">
+    <cfRule type="expression" dxfId="141" priority="165">
       <formula>IF(VLOOKUP($BB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC10:BC9999">
-    <cfRule type="expression" dxfId="140" priority="163">
+    <cfRule type="expression" dxfId="140" priority="166">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="164">
+    <cfRule type="expression" dxfId="139" priority="167">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="165">
+    <cfRule type="expression" dxfId="138" priority="168">
       <formula>IF(VLOOKUP($BC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD10:BD9999">
-    <cfRule type="expression" dxfId="137" priority="166">
+    <cfRule type="expression" dxfId="137" priority="169">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="167">
+    <cfRule type="expression" dxfId="136" priority="170">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="168">
+    <cfRule type="expression" dxfId="135" priority="171">
       <formula>IF(VLOOKUP($BD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE10:BE9999">
-    <cfRule type="expression" dxfId="134" priority="169">
+    <cfRule type="expression" dxfId="134" priority="172">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="170">
+    <cfRule type="expression" dxfId="133" priority="173">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="171">
+    <cfRule type="expression" dxfId="132" priority="174">
       <formula>IF(VLOOKUP($BE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF10:BF9999">
-    <cfRule type="expression" dxfId="131" priority="172">
+    <cfRule type="expression" dxfId="131" priority="175">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="173">
+    <cfRule type="expression" dxfId="130" priority="176">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="174">
+    <cfRule type="expression" dxfId="129" priority="177">
       <formula>IF(VLOOKUP($BF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG10:BG9999">
-    <cfRule type="expression" dxfId="128" priority="175">
+    <cfRule type="expression" dxfId="128" priority="178">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="176">
+    <cfRule type="expression" dxfId="127" priority="179">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="177">
+    <cfRule type="expression" dxfId="126" priority="180">
       <formula>IF(VLOOKUP($BG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH10:BH9999">
-    <cfRule type="expression" dxfId="125" priority="178">
+    <cfRule type="expression" dxfId="125" priority="181">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="179">
+    <cfRule type="expression" dxfId="124" priority="182">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="180">
+    <cfRule type="expression" dxfId="123" priority="183">
       <formula>IF(VLOOKUP($BH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI10:BI9999">
-    <cfRule type="expression" dxfId="122" priority="181">
+    <cfRule type="expression" dxfId="122" priority="184">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="182">
+    <cfRule type="expression" dxfId="121" priority="185">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="183">
+    <cfRule type="expression" dxfId="120" priority="186">
       <formula>IF(VLOOKUP($BI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ10:BJ9999">
-    <cfRule type="expression" dxfId="119" priority="184">
+    <cfRule type="expression" dxfId="119" priority="187">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="185">
+    <cfRule type="expression" dxfId="118" priority="188">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="186">
+    <cfRule type="expression" dxfId="117" priority="189">
       <formula>IF(VLOOKUP($BJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BK10:BK9999">
-    <cfRule type="expression" dxfId="116" priority="187">
+    <cfRule type="expression" dxfId="116" priority="190">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="188">
+    <cfRule type="expression" dxfId="115" priority="191">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="189">
+    <cfRule type="expression" dxfId="114" priority="192">
       <formula>IF(VLOOKUP($BK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL10:BL9999">
-    <cfRule type="expression" dxfId="113" priority="190">
+    <cfRule type="expression" dxfId="113" priority="193">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="191">
+    <cfRule type="expression" dxfId="112" priority="194">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="192">
+    <cfRule type="expression" dxfId="111" priority="195">
       <formula>IF(VLOOKUP($BL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM10:BM9999">
-    <cfRule type="expression" dxfId="110" priority="193">
+    <cfRule type="expression" dxfId="110" priority="196">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="194">
+    <cfRule type="expression" dxfId="109" priority="197">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="195">
+    <cfRule type="expression" dxfId="108" priority="198">
       <formula>IF(VLOOKUP($BM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN10:BN9999">
-    <cfRule type="expression" dxfId="107" priority="196">
+    <cfRule type="expression" dxfId="107" priority="199">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="197">
+    <cfRule type="expression" dxfId="106" priority="200">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="198">
+    <cfRule type="expression" dxfId="105" priority="201">
       <formula>IF(VLOOKUP($BN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO10:BO9999">
-    <cfRule type="expression" dxfId="104" priority="199">
+    <cfRule type="expression" dxfId="104" priority="202">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="200">
+    <cfRule type="expression" dxfId="103" priority="203">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="201">
+    <cfRule type="expression" dxfId="102" priority="204">
       <formula>IF(VLOOKUP($BO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP10:BP9999">
-    <cfRule type="expression" dxfId="101" priority="202">
+    <cfRule type="expression" dxfId="101" priority="205">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="203">
+    <cfRule type="expression" dxfId="100" priority="206">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="204">
+    <cfRule type="expression" dxfId="99" priority="207">
       <formula>IF(VLOOKUP($BP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ10:BQ9999">
-    <cfRule type="expression" dxfId="98" priority="205">
+    <cfRule type="expression" dxfId="98" priority="208">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="206">
+    <cfRule type="expression" dxfId="97" priority="209">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="207">
+    <cfRule type="expression" dxfId="96" priority="210">
       <formula>IF(VLOOKUP($BQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR10:BR9999">
-    <cfRule type="expression" dxfId="95" priority="208">
+    <cfRule type="expression" dxfId="95" priority="211">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="209">
+    <cfRule type="expression" dxfId="94" priority="212">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="210">
+    <cfRule type="expression" dxfId="93" priority="213">
       <formula>IF(VLOOKUP($BR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS10:BS9999">
-    <cfRule type="expression" dxfId="92" priority="211">
+    <cfRule type="expression" dxfId="92" priority="214">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="212">
+    <cfRule type="expression" dxfId="91" priority="215">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="213">
+    <cfRule type="expression" dxfId="90" priority="216">
       <formula>IF(VLOOKUP($BS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT10:BT9999">
-    <cfRule type="expression" dxfId="89" priority="214">
+    <cfRule type="expression" dxfId="89" priority="217">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="215">
+    <cfRule type="expression" dxfId="88" priority="218">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="216">
+    <cfRule type="expression" dxfId="87" priority="219">
       <formula>IF(VLOOKUP($BT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU10:BU9999">
-    <cfRule type="expression" dxfId="86" priority="217">
+    <cfRule type="expression" dxfId="86" priority="220">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="218">
+    <cfRule type="expression" dxfId="85" priority="221">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="219">
+    <cfRule type="expression" dxfId="84" priority="222">
       <formula>IF(VLOOKUP($BU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BV10:BV9999">
-    <cfRule type="expression" dxfId="83" priority="220">
+    <cfRule type="expression" dxfId="83" priority="223">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="221">
+    <cfRule type="expression" dxfId="82" priority="224">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="222">
+    <cfRule type="expression" dxfId="81" priority="225">
       <formula>IF(VLOOKUP($BV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW10:BW9999">
-    <cfRule type="expression" dxfId="80" priority="223">
+    <cfRule type="expression" dxfId="80" priority="226">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="224">
+    <cfRule type="expression" dxfId="79" priority="227">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="225">
+    <cfRule type="expression" dxfId="78" priority="228">
       <formula>IF(VLOOKUP($BW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BX10:BX9999">
-    <cfRule type="expression" dxfId="77" priority="226">
+    <cfRule type="expression" dxfId="77" priority="229">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="227">
+    <cfRule type="expression" dxfId="76" priority="230">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="228">
+    <cfRule type="expression" dxfId="75" priority="231">
       <formula>IF(VLOOKUP($BX$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BY10:BY9999">
-    <cfRule type="expression" dxfId="74" priority="229">
+    <cfRule type="expression" dxfId="74" priority="232">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="230">
+    <cfRule type="expression" dxfId="73" priority="233">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="231">
+    <cfRule type="expression" dxfId="72" priority="234">
       <formula>IF(VLOOKUP($BY$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ10:BZ9999">
-    <cfRule type="expression" dxfId="71" priority="232">
+    <cfRule type="expression" dxfId="71" priority="235">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="233">
+    <cfRule type="expression" dxfId="70" priority="236">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="234">
+    <cfRule type="expression" dxfId="69" priority="237">
       <formula>IF(VLOOKUP($BZ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA10:CA9999">
-    <cfRule type="expression" dxfId="68" priority="235">
+    <cfRule type="expression" dxfId="68" priority="238">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="236">
+    <cfRule type="expression" dxfId="67" priority="239">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="237">
+    <cfRule type="expression" dxfId="66" priority="240">
       <formula>IF(VLOOKUP($CA$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB10:CB9999">
-    <cfRule type="expression" dxfId="65" priority="238">
+    <cfRule type="expression" dxfId="65" priority="241">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="239">
+    <cfRule type="expression" dxfId="64" priority="242">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="240">
+    <cfRule type="expression" dxfId="63" priority="243">
       <formula>IF(VLOOKUP($CB$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC10:CC9999">
-    <cfRule type="expression" dxfId="62" priority="241">
+    <cfRule type="expression" dxfId="62" priority="244">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="242">
+    <cfRule type="expression" dxfId="61" priority="245">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="243">
+    <cfRule type="expression" dxfId="60" priority="246">
       <formula>IF(VLOOKUP($CC$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD10:CD9999">
-    <cfRule type="expression" dxfId="59" priority="244">
+    <cfRule type="expression" dxfId="59" priority="247">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="245">
+    <cfRule type="expression" dxfId="58" priority="248">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="246">
+    <cfRule type="expression" dxfId="57" priority="249">
       <formula>IF(VLOOKUP($CD$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CE10:CE9999">
-    <cfRule type="expression" dxfId="56" priority="247">
+    <cfRule type="expression" dxfId="56" priority="250">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="248">
+    <cfRule type="expression" dxfId="55" priority="251">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="249">
+    <cfRule type="expression" dxfId="54" priority="252">
       <formula>IF(VLOOKUP($CE$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CF10:CF9999">
-    <cfRule type="expression" dxfId="53" priority="250">
+    <cfRule type="expression" dxfId="53" priority="253">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="251">
+    <cfRule type="expression" dxfId="52" priority="254">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="252">
+    <cfRule type="expression" dxfId="51" priority="255">
       <formula>IF(VLOOKUP($CF$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG10:CG9999">
-    <cfRule type="expression" dxfId="50" priority="253">
+    <cfRule type="expression" dxfId="50" priority="256">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="254">
+    <cfRule type="expression" dxfId="49" priority="257">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="255">
+    <cfRule type="expression" dxfId="48" priority="258">
       <formula>IF(VLOOKUP($CG$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH10:CH9999">
-    <cfRule type="expression" dxfId="47" priority="256">
+    <cfRule type="expression" dxfId="47" priority="259">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="257">
+    <cfRule type="expression" dxfId="46" priority="260">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="258">
+    <cfRule type="expression" dxfId="45" priority="261">
       <formula>IF(VLOOKUP($CH$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI10:CI9999">
-    <cfRule type="expression" dxfId="44" priority="259">
+    <cfRule type="expression" dxfId="44" priority="262">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="260">
+    <cfRule type="expression" dxfId="43" priority="263">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="261">
+    <cfRule type="expression" dxfId="42" priority="264">
       <formula>IF(VLOOKUP($CI$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CJ10:CJ9999">
-    <cfRule type="expression" dxfId="41" priority="262">
+    <cfRule type="expression" dxfId="41" priority="265">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="263">
+    <cfRule type="expression" dxfId="40" priority="266">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="264">
+    <cfRule type="expression" dxfId="39" priority="267">
       <formula>IF(VLOOKUP($CJ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CK10:CK9999">
-    <cfRule type="expression" dxfId="38" priority="265">
+    <cfRule type="expression" dxfId="38" priority="268">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="266">
+    <cfRule type="expression" dxfId="37" priority="269">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="267">
+    <cfRule type="expression" dxfId="36" priority="270">
       <formula>IF(VLOOKUP($CK$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CL10:CL9999">
-    <cfRule type="expression" dxfId="35" priority="268">
+    <cfRule type="expression" dxfId="35" priority="271">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="269">
+    <cfRule type="expression" dxfId="34" priority="272">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="270">
+    <cfRule type="expression" dxfId="33" priority="273">
       <formula>IF(VLOOKUP($CL$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM10:CM9999">
-    <cfRule type="expression" dxfId="32" priority="271">
+    <cfRule type="expression" dxfId="32" priority="274">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="272">
+    <cfRule type="expression" dxfId="31" priority="275">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="273">
+    <cfRule type="expression" dxfId="30" priority="276">
       <formula>IF(VLOOKUP($CM$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN10:CN9999">
-    <cfRule type="expression" dxfId="29" priority="274">
+    <cfRule type="expression" dxfId="29" priority="277">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="275">
+    <cfRule type="expression" dxfId="28" priority="278">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="276">
+    <cfRule type="expression" dxfId="27" priority="279">
       <formula>IF(VLOOKUP($CN$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO10:CO9999">
-    <cfRule type="expression" dxfId="26" priority="277">
+    <cfRule type="expression" dxfId="26" priority="280">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="278">
+    <cfRule type="expression" dxfId="25" priority="281">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="279">
+    <cfRule type="expression" dxfId="24" priority="282">
       <formula>IF(VLOOKUP($CO$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP10:CP9999">
-    <cfRule type="expression" dxfId="23" priority="280">
+    <cfRule type="expression" dxfId="23" priority="283">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="281">
+    <cfRule type="expression" dxfId="22" priority="284">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="282">
+    <cfRule type="expression" dxfId="21" priority="285">
       <formula>IF(VLOOKUP($CP$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ10:CQ9999">
-    <cfRule type="expression" dxfId="20" priority="283">
+    <cfRule type="expression" dxfId="20" priority="286">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="284">
+    <cfRule type="expression" dxfId="19" priority="287">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="285">
+    <cfRule type="expression" dxfId="18" priority="288">
       <formula>IF(VLOOKUP($CQ$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR10:CR9999">
-    <cfRule type="expression" dxfId="17" priority="286">
+    <cfRule type="expression" dxfId="17" priority="289">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="287">
+    <cfRule type="expression" dxfId="16" priority="290">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="288">
+    <cfRule type="expression" dxfId="15" priority="291">
       <formula>IF(VLOOKUP($CR$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS10:CS9999">
-    <cfRule type="expression" dxfId="14" priority="289">
+    <cfRule type="expression" dxfId="14" priority="292">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="290">
+    <cfRule type="expression" dxfId="13" priority="293">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="291">
+    <cfRule type="expression" dxfId="12" priority="294">
       <formula>IF(VLOOKUP($CS$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT10:CT9999">
-    <cfRule type="expression" dxfId="11" priority="292">
+    <cfRule type="expression" dxfId="11" priority="295">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="293">
+    <cfRule type="expression" dxfId="10" priority="296">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="294">
+    <cfRule type="expression" dxfId="9" priority="297">
       <formula>IF(VLOOKUP($CT$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU10:CU9999">
-    <cfRule type="expression" dxfId="8" priority="295">
+    <cfRule type="expression" dxfId="8" priority="298">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="296">
+    <cfRule type="expression" dxfId="7" priority="299">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="297">
+    <cfRule type="expression" dxfId="6" priority="300">
       <formula>IF(VLOOKUP($CU$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV10:CV9999">
-    <cfRule type="expression" dxfId="5" priority="298">
+    <cfRule type="expression" dxfId="5" priority="301">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="299">
+    <cfRule type="expression" dxfId="4" priority="302">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="300">
+    <cfRule type="expression" dxfId="3" priority="303">
       <formula>IF(VLOOKUP($CV$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW10:CW9999">
-    <cfRule type="expression" dxfId="2" priority="301">
+    <cfRule type="expression" dxfId="2" priority="304">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=2,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="302">
+    <cfRule type="expression" dxfId="1" priority="305">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=1,1,0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="303">
+    <cfRule type="expression" dxfId="0" priority="306">
       <formula>IF(VLOOKUP($CW$9,requiredAttributePTDMap,MATCH(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($C10," ", "_"),"&amp;",""),",",""),"--","-"),"-","_"),"/","_"),"__","_")),attributeMapFeedProductType,0)+1,FALSE)=-1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15162,7 +16680,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Invalid value, Select from Dropdown" sqref="C10:C9999" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>INDIRECT(LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE($B10," ","-"),"&amp;",""),"--","-"),"-","_"),"/","_"),"=",""),",","")), FALSE)</formula1>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="only whole number allowed for this column" sqref="Z10:Z9999 AB10:AB9999 AD10:AD9999 AM10:AM9999 AO10:AO9999 AQ10:AQ9999 AS10:AS9999 AU10:AU9999 AW10:AW9999 AY10:AY9999 CN10:CN9999 CP10:CP9999 D10:D9999" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="only whole number allowed for this column" sqref="D10:D9999 Z10:Z9999 AQ10:AQ9999 AS10:AS9999 AW10:AW9999 AY10:AY9999 AU10:AU9999 CN10:CN9999 AD10:AD9999 AB10:AB9999 AM10:AM9999 AO10:AO9999 CP10:CP9999" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="Invalid value, Select from Dropdown" sqref="F10:F9999" xr:uid="{00000000-0002-0000-0200-000004000000}">
       <formula1>valid_values_new_season_code</formula1>
     </dataValidation>
@@ -15293,9 +16811,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>272</v>
       </c>
@@ -15420,7 +16938,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>373</v>
       </c>
@@ -15545,7 +17063,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>395</v>
       </c>
@@ -15646,7 +17164,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>414</v>
       </c>
@@ -15735,7 +17253,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>429</v>
       </c>
@@ -15800,7 +17318,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>444</v>
       </c>
@@ -15844,7 +17362,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>457</v>
       </c>
@@ -15885,7 +17403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>465</v>
       </c>
@@ -15923,7 +17441,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>477</v>
       </c>
@@ -15961,7 +17479,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>486</v>
       </c>
@@ -15996,7 +17514,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>494</v>
       </c>
@@ -16025,7 +17543,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>503</v>
       </c>
@@ -16054,7 +17572,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>510</v>
       </c>
@@ -16080,7 +17598,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>517</v>
       </c>
@@ -16106,7 +17624,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>523</v>
       </c>
@@ -16129,7 +17647,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>528</v>
       </c>
@@ -16152,7 +17670,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>533</v>
       </c>
@@ -16172,7 +17690,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>537</v>
       </c>
@@ -16189,7 +17707,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>542</v>
       </c>
@@ -16206,7 +17724,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>546</v>
       </c>
@@ -16223,7 +17741,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>550</v>
       </c>
@@ -16237,7 +17755,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>553</v>
       </c>
@@ -16251,7 +17769,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>557</v>
       </c>
@@ -16262,7 +17780,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>560</v>
       </c>
@@ -16273,7 +17791,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>562</v>
       </c>
@@ -16281,7 +17799,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="26" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>563</v>
       </c>
@@ -16289,7 +17807,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>565</v>
       </c>
@@ -16297,7 +17815,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>566</v>
       </c>
@@ -16305,7 +17823,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>567</v>
       </c>
@@ -16313,7 +17831,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>568</v>
       </c>
@@ -16321,7 +17839,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>570</v>
       </c>
@@ -16329,7 +17847,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="32" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:28" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>572</v>
       </c>
@@ -16337,7 +17855,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>573</v>
       </c>
@@ -16345,7 +17863,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>574</v>
       </c>
@@ -16353,7 +17871,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>576</v>
       </c>
@@ -16361,7 +17879,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="36" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>577</v>
       </c>
@@ -16369,7 +17887,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>579</v>
       </c>
@@ -16377,7 +17895,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>581</v>
       </c>
@@ -16385,792 +17903,792 @@
         <v>549</v>
       </c>
     </row>
-    <row r="39" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="41" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="46" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E127" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E129" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E133" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E134" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E135" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E136" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E137" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E138" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E139" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E140" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E141" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E142" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E143" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E146" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E149" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E150" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E152" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E153" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E154" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E156" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E158" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E160" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E161" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E162" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E163" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E164" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E165" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E166" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E167" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E168" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E169" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E170" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E171" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E172" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E173" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E174" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E175" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E176" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E177" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E178" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E179" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E180" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E187" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E188" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E189" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E190" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E191" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E192" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E193" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E194" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E195" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E196" t="s">
         <v>739</v>
       </c>
@@ -17187,7 +18705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -17200,7 +18718,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>740</v>
       </c>
@@ -17229,7 +18747,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -17258,7 +18776,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -17281,7 +18799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -17301,7 +18819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -17321,7 +18839,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -17338,7 +18856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -17355,7 +18873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>98</v>
       </c>
@@ -17363,17 +18881,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>52</v>
       </c>
@@ -17390,41 +18908,41 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
     <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" customWidth="1"/>
-    <col min="22" max="22" width="27.5703125" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
-    <col min="25" max="25" width="20.42578125" customWidth="1"/>
-    <col min="26" max="26" width="21.5703125" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
+    <col min="25" max="25" width="20.44140625" customWidth="1"/>
+    <col min="26" max="26" width="21.5546875" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>749</v>
       </c>
@@ -17516,7 +19034,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>276</v>
       </c>
@@ -17608,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>279</v>
       </c>
@@ -17700,7 +19218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>280</v>
       </c>
@@ -17792,7 +19310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>778</v>
       </c>
@@ -17884,7 +19402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>303</v>
       </c>
@@ -17976,7 +19494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>304</v>
       </c>
@@ -18068,7 +19586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>305</v>
       </c>
@@ -18160,7 +19678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>306</v>
       </c>
@@ -18252,7 +19770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>307</v>
       </c>
@@ -18344,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>308</v>
       </c>
@@ -18436,7 +19954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>309</v>
       </c>
@@ -18528,7 +20046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>779</v>
       </c>
@@ -18620,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>780</v>
       </c>
@@ -18712,7 +20230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>781</v>
       </c>
@@ -18804,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>782</v>
       </c>
@@ -18896,7 +20414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>783</v>
       </c>
@@ -18988,7 +20506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>784</v>
       </c>
@@ -19080,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>785</v>
       </c>
@@ -19172,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>786</v>
       </c>
@@ -19264,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>787</v>
       </c>
@@ -19356,7 +20874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>788</v>
       </c>
@@ -19448,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>789</v>
       </c>
@@ -19540,7 +21058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>790</v>
       </c>
@@ -19632,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>791</v>
       </c>
@@ -19724,7 +21242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>792</v>
       </c>
@@ -19816,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>793</v>
       </c>
@@ -19908,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>794</v>
       </c>
@@ -20000,7 +21518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>795</v>
       </c>
@@ -20092,7 +21610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>796</v>
       </c>
@@ -20184,7 +21702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>797</v>
       </c>
@@ -20276,7 +21794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>798</v>
       </c>
@@ -20368,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>799</v>
       </c>
@@ -20460,7 +21978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>800</v>
       </c>
@@ -20552,7 +22070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>801</v>
       </c>
@@ -20644,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>802</v>
       </c>
@@ -20736,7 +22254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>803</v>
       </c>
@@ -20828,7 +22346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>804</v>
       </c>
@@ -20920,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>805</v>
       </c>
@@ -21012,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>806</v>
       </c>
@@ -21104,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>807</v>
       </c>
@@ -21196,7 +22714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>808</v>
       </c>
@@ -21288,7 +22806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>809</v>
       </c>
@@ -21380,7 +22898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>810</v>
       </c>
@@ -21472,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>811</v>
       </c>
@@ -21564,7 +23082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>812</v>
       </c>
@@ -21656,7 +23174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>813</v>
       </c>
@@ -21748,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>814</v>
       </c>
@@ -21840,7 +23358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>815</v>
       </c>
@@ -21932,7 +23450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>816</v>
       </c>
@@ -22024,7 +23542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>817</v>
       </c>
@@ -22116,7 +23634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>818</v>
       </c>
@@ -22208,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>819</v>
       </c>
@@ -22300,7 +23818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>820</v>
       </c>
@@ -22392,7 +23910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>821</v>
       </c>
@@ -22484,7 +24002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>822</v>
       </c>
@@ -22576,7 +24094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>823</v>
       </c>
@@ -22668,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>824</v>
       </c>
@@ -22760,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>825</v>
       </c>
@@ -22852,7 +24370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>826</v>
       </c>
@@ -22944,7 +24462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>827</v>
       </c>
@@ -23036,7 +24554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>828</v>
       </c>
@@ -23128,7 +24646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>829</v>
       </c>
@@ -23220,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>830</v>
       </c>
@@ -23312,7 +24830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>831</v>
       </c>
@@ -23404,7 +24922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>832</v>
       </c>
@@ -23496,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>833</v>
       </c>
@@ -23588,7 +25106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>834</v>
       </c>
@@ -23680,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>835</v>
       </c>
@@ -23772,7 +25290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>836</v>
       </c>
@@ -23864,7 +25382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>837</v>
       </c>
@@ -23956,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>838</v>
       </c>
@@ -24048,7 +25566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>839</v>
       </c>
@@ -24140,7 +25658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>840</v>
       </c>
@@ -24232,7 +25750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>841</v>
       </c>
@@ -24324,7 +25842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>842</v>
       </c>
@@ -24416,7 +25934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>843</v>
       </c>
@@ -24508,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>844</v>
       </c>
@@ -24600,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>845</v>
       </c>
@@ -24692,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>846</v>
       </c>
@@ -24784,7 +26302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>847</v>
       </c>
@@ -24876,7 +26394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>848</v>
       </c>
@@ -24968,7 +26486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>849</v>
       </c>
@@ -25060,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>850</v>
       </c>
@@ -25152,7 +26670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>851</v>
       </c>
@@ -25244,7 +26762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>272</v>
       </c>
@@ -25336,7 +26854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>273</v>
       </c>
@@ -25428,7 +26946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>274</v>
       </c>
@@ -25520,7 +27038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>278</v>
       </c>
@@ -25612,7 +27130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>275</v>
       </c>
@@ -25704,7 +27222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>281</v>
       </c>
@@ -25796,7 +27314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>289</v>
       </c>
@@ -25888,7 +27406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>284</v>
       </c>
@@ -25980,7 +27498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>283</v>
       </c>
@@ -26072,7 +27590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>286</v>
       </c>
@@ -26164,7 +27682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>297</v>
       </c>
@@ -26256,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>299</v>
       </c>
@@ -26348,7 +27866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>301</v>
       </c>
@@ -26440,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>852</v>
       </c>
@@ -26532,7 +28050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>334</v>
       </c>
@@ -26624,7 +28142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>335</v>
       </c>
@@ -26716,7 +28234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>336</v>
       </c>
@@ -26808,7 +28326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>337</v>
       </c>
@@ -26900,7 +28418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>338</v>
       </c>
@@ -26992,7 +28510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>339</v>
       </c>
@@ -27084,7 +28602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>340</v>
       </c>
@@ -27176,7 +28694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>341</v>
       </c>
@@ -27268,7 +28786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>342</v>
       </c>
@@ -27360,7 +28878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>343</v>
       </c>
@@ -27452,7 +28970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>344</v>
       </c>
@@ -27544,7 +29062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>345</v>
       </c>
@@ -27636,7 +29154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>346</v>
       </c>
@@ -27728,7 +29246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>347</v>
       </c>
@@ -27820,7 +29338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>348</v>
       </c>
@@ -27912,7 +29430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>349</v>
       </c>
@@ -28004,7 +29522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>350</v>
       </c>
@@ -28096,7 +29614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>351</v>
       </c>
@@ -28188,7 +29706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>352</v>
       </c>
@@ -28280,7 +29798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>353</v>
       </c>
@@ -28372,7 +29890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>354</v>
       </c>
@@ -28464,7 +29982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>355</v>
       </c>
@@ -28556,7 +30074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>356</v>
       </c>
@@ -28648,7 +30166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>357</v>
       </c>
@@ -28740,7 +30258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>310</v>
       </c>
@@ -28832,7 +30350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>312</v>
       </c>
@@ -28924,7 +30442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>314</v>
       </c>
@@ -29016,7 +30534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>316</v>
       </c>
@@ -29108,7 +30626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>325</v>
       </c>
@@ -29200,7 +30718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>326</v>
       </c>
@@ -29292,7 +30810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>327</v>
       </c>
@@ -29384,7 +30902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>363</v>
       </c>
@@ -29476,7 +30994,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>328</v>
       </c>
@@ -29568,7 +31086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>329</v>
       </c>
@@ -29660,7 +31178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>282</v>
       </c>
@@ -29752,7 +31270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>366</v>
       </c>
@@ -29844,7 +31362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>292</v>
       </c>
@@ -29936,7 +31454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>293</v>
       </c>
@@ -30028,7 +31546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>294</v>
       </c>
@@ -30120,7 +31638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>295</v>
       </c>
@@ -30212,7 +31730,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>296</v>
       </c>
@@ -30304,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>291</v>
       </c>
@@ -30396,7 +31914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>318</v>
       </c>
@@ -30488,7 +32006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>320</v>
       </c>
@@ -30580,7 +32098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>290</v>
       </c>
@@ -30672,7 +32190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>324</v>
       </c>
@@ -30764,7 +32282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>322</v>
       </c>
@@ -30856,7 +32374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>287</v>
       </c>
@@ -30948,7 +32466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>288</v>
       </c>
@@ -31040,7 +32558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>330</v>
       </c>
@@ -31132,7 +32650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>331</v>
       </c>
@@ -31224,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>332</v>
       </c>
@@ -31316,7 +32834,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>333</v>
       </c>
@@ -31408,7 +32926,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>277</v>
       </c>
@@ -31500,7 +33018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>853</v>
       </c>
@@ -31592,7 +33110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>854</v>
       </c>
@@ -31684,7 +33202,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>855</v>
       </c>
@@ -31776,7 +33294,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>856</v>
       </c>
@@ -31868,7 +33386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>857</v>
       </c>
@@ -31960,7 +33478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>858</v>
       </c>
@@ -32052,7 +33570,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>859</v>
       </c>
@@ -32144,7 +33662,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>285</v>
       </c>
@@ -32236,7 +33754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>860</v>
       </c>
@@ -32328,7 +33846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>861</v>
       </c>
@@ -32420,7 +33938,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>862</v>
       </c>
@@ -32512,7 +34030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>863</v>
       </c>
@@ -32604,7 +34122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>864</v>
       </c>
@@ -32696,7 +34214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>865</v>
       </c>
@@ -32788,7 +34306,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>367</v>
       </c>
@@ -32880,7 +34398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>866</v>
       </c>
@@ -32972,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>358</v>
       </c>
@@ -33064,7 +34582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>359</v>
       </c>
@@ -33156,7 +34674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>360</v>
       </c>
@@ -33248,7 +34766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>361</v>
       </c>
@@ -33340,7 +34858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>362</v>
       </c>
@@ -33432,7 +34950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>365</v>
       </c>
@@ -33524,7 +35042,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>867</v>
       </c>
@@ -33616,7 +35134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>868</v>
       </c>
@@ -33708,7 +35226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>869</v>
       </c>
@@ -33800,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>870</v>
       </c>
@@ -33892,7 +35410,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>871</v>
       </c>
@@ -33984,7 +35502,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>371</v>
       </c>
@@ -34076,7 +35594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>372</v>
       </c>
@@ -34168,7 +35686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>370</v>
       </c>
@@ -34260,7 +35778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>872</v>
       </c>
@@ -34352,7 +35870,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -34444,7 +35962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>873</v>
       </c>
@@ -34536,7 +36054,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>874</v>
       </c>
@@ -34628,7 +36146,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>875</v>
       </c>
@@ -34720,7 +36238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>876</v>
       </c>
@@ -34812,7 +36330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>877</v>
       </c>
@@ -34904,7 +36422,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>878</v>
       </c>
@@ -34996,7 +36514,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>369</v>
       </c>
@@ -35088,7 +36606,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>298</v>
       </c>
@@ -35180,7 +36698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>300</v>
       </c>
@@ -35272,7 +36790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>302</v>
       </c>
@@ -35364,7 +36882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>311</v>
       </c>
@@ -35456,7 +36974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>313</v>
       </c>
@@ -35548,7 +37066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>315</v>
       </c>
@@ -35640,7 +37158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>317</v>
       </c>
@@ -35732,7 +37250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>364</v>
       </c>
